--- a/config/shadowGuild.xlsx
+++ b/config/shadowGuild.xlsx
@@ -10,20 +10,22 @@
     <sheet name="角色" sheetId="1" r:id="rId1"/>
     <sheet name="属性" sheetId="2" r:id="rId2"/>
     <sheet name="能力" sheetId="3" r:id="rId3"/>
+    <sheet name="品德" sheetId="4" r:id="rId4"/>
+    <sheet name="装备" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="462">
   <si>
     <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -39,19 +41,19 @@
       </rPr>
       <t>irtue</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>eccentricity</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>weapon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>head</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -67,399 +69,1700 @@
       </rPr>
       <t>hest</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>accessory</t>
   </si>
   <si>
     <t>combat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>production</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>assassination</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>sociality</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>strength</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>agility</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>constitution</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>intelligence</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>荆轲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>角色姓名：角色姓名分为真实人名和随机名称，随机名字由姓和名两个部分组成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>生产能力：在生产研究中的能力，该能力用于生产和研究的修正</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>能力：所有能力的上限值为10，最低值为0，一个角色最多拥有一种类型的3种能力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>暗杀能力：在暗杀方面的能力，该能力用于暗杀的修正</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>社交能力：在社交方面的能力，该能力用于社交的修正</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>烹饪5
 铁匠7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>剑术5
 刀术2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>毒药6
 爆炸3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>喝酒7
 跳舞5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>战斗能力：使用某种战斗手段的能力，该能力用于修正伤害值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>美德：角色的优良品行，品行可以影响角色的一些特殊选择</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>怪癖：角色的不良品行，怪癖可以影响角色的一些特殊选择</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>坚毅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>好色
 贪吃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>匕首</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>铁盔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>皮甲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>钻戒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>装备：分为武器、头、胸、挂件4大部分，可以用于修正角色能力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>速度 = 敏捷 × 20 × （ 1 + 乘法修正值） + 加法修正值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">研究 = 智力 × 10 × （ 1 + 乘法修正值） + 加法修正值  </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>生命 = 体质 × 25 × （ 1 + 乘法修正值） + 加法修正值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>战斗中可以承受击打的能力，生命力为0则失去战斗能力，可能死亡、重伤、失去知觉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>战斗中出手的速度，速度快的单位可以连续出手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">伤害 = 力量 × 8 × （ 1 + 乘法修正值） + 加法修正值  </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>战斗中实际造成的伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>研究能力，加快研究速度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">魅力 = 颜值 × 10 × （ 1 + 乘法修正值） + 加法修正值  </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>在与NPC交互时天生吸引人的能力，魅力高的角色可以经常从事间谍活动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>charm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>charm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>角色属性：角色属性上限值为10，属性的影响，constitution生命值寿命，agility出手速度，strength攻击伤害，intelligence影响研发效果，charm影响对人的吸引力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>战斗能力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>能力介绍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>生产能力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>暗杀能力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>社交能力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>剑术</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>刀术</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>拳术</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>弓术</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>火枪术</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>制皮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>锻造</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>草药</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>裁缝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>机关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>烹饪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>可以使用剑武器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>可以使用刀武器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>可以使用拳套武器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>弩术</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>可以使用弓武器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>可以使用弩武器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>可以使用火枪武器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>锻造武器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>制造药水</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>制造食物</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>制造特殊武器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>制造衣服</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>制造皮具</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>采矿</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>采集矿藏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>捕鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>种植</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>种植粮食</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>捕捉鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>矛术</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>可以使用长矛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>马术</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>可以使用马匹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>易容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>毒药</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>催眠</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆炸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒虫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>茶道</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>赌博</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>演讲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>插花</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>品酒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>舞蹈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>歌剧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>吟诗</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>斗犬</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>跑马</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷烟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒刃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>筒针</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蹴鞠</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>铳术</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍术</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以使用特殊忍者武器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>棍术</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以使用棍棒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>辩论</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>驭蛇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱虫</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠宝</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造珠宝</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>远狙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>美德</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪癖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>beast hater</t>
+  </si>
+  <si>
+    <t>beast slayer</t>
+  </si>
+  <si>
+    <t>clutch hitter</t>
+  </si>
+  <si>
+    <t>cove adventurer</t>
+  </si>
+  <si>
+    <t>deadly</t>
+  </si>
+  <si>
+    <t>eagle eye</t>
+  </si>
+  <si>
+    <t>early riser</t>
+  </si>
+  <si>
+    <t>eldritch hater</t>
+  </si>
+  <si>
+    <t>eldritch slayer</t>
+  </si>
+  <si>
+    <t>evasive</t>
+  </si>
+  <si>
+    <t>hard noggin</t>
+  </si>
+  <si>
+    <t>irrepressible</t>
+  </si>
+  <si>
+    <t>last gasp</t>
+  </si>
+  <si>
+    <t>lurker</t>
+  </si>
+  <si>
+    <t>mankind hater</t>
+  </si>
+  <si>
+    <t>man slayer</t>
+  </si>
+  <si>
+    <t>natural eye</t>
+  </si>
+  <si>
+    <t>natural swing</t>
+  </si>
+  <si>
+    <t>night owl</t>
+  </si>
+  <si>
+    <t>on guard</t>
+  </si>
+  <si>
+    <t>photomania</t>
+  </si>
+  <si>
+    <t>precise striker</t>
+  </si>
+  <si>
+    <t>quickdraw</t>
+  </si>
+  <si>
+    <t>quick reflexes</t>
+  </si>
+  <si>
+    <t>resilient</t>
+  </si>
+  <si>
+    <t>robust</t>
+  </si>
+  <si>
+    <t>ruins adventurer</t>
+  </si>
+  <si>
+    <t>second wind</t>
+  </si>
+  <si>
+    <t>skilled gambler</t>
+  </si>
+  <si>
+    <t>slugger</t>
+  </si>
+  <si>
+    <t>steady</t>
+  </si>
+  <si>
+    <t>stress faster</t>
+  </si>
+  <si>
+    <t>thick blooded</t>
+  </si>
+  <si>
+    <t>tough</t>
+  </si>
+  <si>
+    <t>hard skinned</t>
+  </si>
+  <si>
+    <t>unholy hater</t>
+  </si>
+  <si>
+    <t>unholy slayer</t>
+  </si>
+  <si>
+    <t>unerring</t>
+  </si>
+  <si>
+    <t>unyielding</t>
+  </si>
+  <si>
+    <t>warrens adventurer</t>
+  </si>
+  <si>
+    <t>warrior of light</t>
+  </si>
+  <si>
+    <t>weald adventurer</t>
+  </si>
+  <si>
+    <t>fear of beats</t>
+  </si>
+  <si>
+    <t>zoophobia</t>
+  </si>
+  <si>
+    <t>anemic</t>
+  </si>
+  <si>
+    <t>dud hitter</t>
+  </si>
+  <si>
+    <t>cove phobe</t>
+  </si>
+  <si>
+    <t>misses the spot</t>
+  </si>
+  <si>
+    <t>flawed release</t>
+  </si>
+  <si>
+    <t>nocturnal</t>
+  </si>
+  <si>
+    <t>fear of eldritch</t>
+  </si>
+  <si>
+    <t>clumsy</t>
+  </si>
+  <si>
+    <t>shocker</t>
+  </si>
+  <si>
+    <t>mercurial</t>
+  </si>
+  <si>
+    <t>winded</t>
+  </si>
+  <si>
+    <t>night blindness</t>
+  </si>
+  <si>
+    <t>fear of mankind</t>
+  </si>
+  <si>
+    <t>automatonophobia</t>
+  </si>
+  <si>
+    <t>lazy eye</t>
+  </si>
+  <si>
+    <t>the yips</t>
+  </si>
+  <si>
+    <t>diurnal</t>
+  </si>
+  <si>
+    <t>off guard</t>
+  </si>
+  <si>
+    <t>phengophobia</t>
+  </si>
+  <si>
+    <t>weak grip</t>
+  </si>
+  <si>
+    <t>slowdraw</t>
+  </si>
+  <si>
+    <t>slow reflexes</t>
+  </si>
+  <si>
+    <t>ruminator</t>
+  </si>
+  <si>
+    <t>sickly</t>
+  </si>
+  <si>
+    <t>ruins phobe</t>
+  </si>
+  <si>
+    <t>tckered out</t>
+  </si>
+  <si>
+    <t>bad gambler</t>
+  </si>
+  <si>
+    <t>torn rotator</t>
+  </si>
+  <si>
+    <t>nervous</t>
+  </si>
+  <si>
+    <t>stress eater</t>
+  </si>
+  <si>
+    <t>thin blooded</t>
+  </si>
+  <si>
+    <t>gragile</t>
+  </si>
+  <si>
+    <t>soft</t>
+  </si>
+  <si>
+    <t>fear of unholy</t>
+  </si>
+  <si>
+    <t>satanophobia</t>
+  </si>
+  <si>
+    <t>scattering</t>
+  </si>
+  <si>
+    <t>wear grip on life</t>
+  </si>
+  <si>
+    <t>warrens phobe</t>
+  </si>
+  <si>
+    <t>light sensitive</t>
+  </si>
+  <si>
+    <t>weald phobe</t>
+  </si>
+  <si>
+    <t>armor tinkerer</t>
+  </si>
+  <si>
+    <t>back tracker</t>
+  </si>
+  <si>
+    <t>balanced</t>
+  </si>
+  <si>
+    <t>cove explorer</t>
+  </si>
+  <si>
+    <t>cove scrounger</t>
+  </si>
+  <si>
+    <t>cove tactician</t>
+  </si>
+  <si>
+    <t>fast healer</t>
+  </si>
+  <si>
+    <t>fated</t>
+  </si>
+  <si>
+    <t>healer's gift</t>
+  </si>
+  <si>
+    <t>meditator</t>
+  </si>
+  <si>
+    <t>nymphomania</t>
+  </si>
+  <si>
+    <t>ruins explorer</t>
+  </si>
+  <si>
+    <t>ruins scrounger</t>
+  </si>
+  <si>
+    <t>ruins tactician</t>
+  </si>
+  <si>
+    <t>stout</t>
+  </si>
+  <si>
+    <t>warrens explorer</t>
+  </si>
+  <si>
+    <t>warrens scrounger</t>
+  </si>
+  <si>
+    <t>warrens tactician</t>
+  </si>
+  <si>
+    <t>weald explorer</t>
+  </si>
+  <si>
+    <t>weald scrounger</t>
+  </si>
+  <si>
+    <t>weald tactician</t>
+  </si>
+  <si>
+    <t>weapon tinkerer</t>
+  </si>
+  <si>
+    <t>enlightened</t>
+  </si>
+  <si>
+    <t>unquiet mind</t>
+  </si>
+  <si>
+    <t>god fearing</t>
+  </si>
+  <si>
+    <t>witness</t>
+  </si>
+  <si>
+    <t>flagellant</t>
+  </si>
+  <si>
+    <t>tippler</t>
+  </si>
+  <si>
+    <t>resolution</t>
+  </si>
+  <si>
+    <t>gmabler</t>
+  </si>
+  <si>
+    <t>known cheat</t>
+  </si>
+  <si>
+    <t>love interest</t>
+  </si>
+  <si>
+    <t>deviant tastes</t>
+  </si>
+  <si>
+    <t>calm</t>
+  </si>
+  <si>
+    <t>claustrophobia</t>
+  </si>
+  <si>
+    <t>lygophobia</t>
+  </si>
+  <si>
+    <t>thanatophobia</t>
+  </si>
+  <si>
+    <t>ablutomania</t>
+  </si>
+  <si>
+    <t>bloodthirsty</t>
+  </si>
+  <si>
+    <t>curious</t>
+  </si>
+  <si>
+    <t>dacnomaina</t>
+  </si>
+  <si>
+    <t>dark temptation</t>
+  </si>
+  <si>
+    <t>demonomainia</t>
+  </si>
+  <si>
+    <t>dipsomania</t>
+  </si>
+  <si>
+    <t>egomania</t>
+  </si>
+  <si>
+    <t>guilty conscience</t>
+  </si>
+  <si>
+    <t>hagiomania</t>
+  </si>
+  <si>
+    <t>hieromania</t>
+  </si>
+  <si>
+    <t>hylomania</t>
+  </si>
+  <si>
+    <t>kleptomaniac</t>
+  </si>
+  <si>
+    <t>necromania</t>
+  </si>
+  <si>
+    <t>paranormania</t>
+  </si>
+  <si>
+    <t>plutomania</t>
+  </si>
+  <si>
+    <t>sitiomania</t>
+  </si>
+  <si>
+    <t>corvid's eye</t>
+  </si>
+  <si>
+    <t>corvid's grace</t>
+  </si>
+  <si>
+    <t>corvid's resilience</t>
+  </si>
+  <si>
+    <t>corvid's blindness</t>
+  </si>
+  <si>
+    <t>corvid's appetite</t>
+  </si>
+  <si>
+    <t>corvid's curiosity</t>
+  </si>
+  <si>
+    <t>美德</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪癖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>动物杀手</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>clotter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>步行者</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10%生命</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大世界移动10%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件反射</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10%速度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10%用刀伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>快刀手</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10%用剑伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>神箭手</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑豪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10%用弓伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩手</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10%用弩伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧马人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10%骑马伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍者大师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10%忍术伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑寡妇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>交际花</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>直男癌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>男闺蜜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>外交官</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐匿者</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>肥胖者</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>厌食症</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少体力恢复速度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大世界移动-10%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对动物有10%伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>畏犬者</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到动物伤害10%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自闭症</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自大狂</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>和人交往减少10%舒适度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>敛财者</t>
+  </si>
+  <si>
+    <t>小气鬼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>会侵吞别人的资产</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>很少轻易花钱购买道具</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>易怒者</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃脱概率+10%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法进入赌场</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒鬼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法进入冥想室</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>性变态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨神</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最强大脑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>病痨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>老千</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>虐待狂</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>赏金杀手</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀人狂</t>
+  </si>
+  <si>
+    <t>残疾</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值-10%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度-10%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>胆小鬼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自虐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>近视眼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法使用弓箭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>神枪手</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10%用铳伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗料理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>烹饪效果-20%
+概率烹制出黑暗料理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>赌鬼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>和人交谈减少20%说服力
+智力加5%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>和人交谈成功率-20%
+战斗伤害+5%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗时提高10%伤害
+魅力-10%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗杀时成功率提高10%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究效果20%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>烹饪效果20%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对男性额外20%伤害
+和男性相处-10%吸引</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对女性额外20%伤害
+和女性相处-10%吸引</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对女性有额外20%吸引
+对女性减少10%伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>虔诚者</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>和人交谈增加20%说服力
+战斗减少10%伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺伎</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对男性有额外20%吸引
+对男性减少10%伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶艺师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞蹈能力+10%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶艺能力+10%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳击手</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳术伤害提高20%
+其他伤害减少-10%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法使用暗杀手段
+伤害提高10%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑手</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>马术能力+10%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命恢复提高10%
+战斗时减少10%伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命恢复-10%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>只喜欢赌场
+赌博增加20%欢愉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>只喜欢冥想室
+冥想增加20%欢愉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>只喜欢喝酒
+喝酒增加20%欢愉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>领袖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为队长时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>女权主义</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会与男性组队</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>男权主义</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会与女性组队</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>与男性组队时伤害+10%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>与女性组队时伤害+10%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>男同主义</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>女同主义</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级属性</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗属性</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>魅力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>crit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reasearch</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>魅力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>charm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>魅力值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>product</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>movement</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界属性</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力属性</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗杀值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>assassination</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产值 = （ 体质 × 5 + 智力 × 5 ）× （ 1 + 乘法修正值 ） + 加法修正值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">魅力值 = 颜值 × 10 × （ 1 + 乘法修正值） + 加法修正值  </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">研究值 = 智力 × 10 × （ 1 + 乘法修正值） + 加法修正值  </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产效率的属性，数值越大生产效率越高</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗杀能力的属性，数值越大暗杀成功率越高</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗杀值 = （ 敏捷 × 5 + 智力 × 5 ）× （ 1 + 乘法修正值 ） + 加法修正值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动力 = （ 体质 × 5 + 敏捷 × 5 )  × （ 1 + 乘法修正值 ） + 加法修正值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大世界地图的移动能力，数值越大移动越快</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>restoration</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">回复力 = 体质 × 10 × （ 1 + 乘法修正值 ） + 加法修正值       </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色生命的恢复能力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>block</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗中造成致命一击的概率，致命一击将造成1.5倍伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率 = （ 敏捷 × 10 + 力量 × 5） × （ 1 + 乘法修正值 ） + 加法修正值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">格挡率 = （ 体质 × 10 + 力量 × 5） × （ 1 + 乘法修正值 ） + 加法修正值 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗中减少伤害的概率，抵消50%的伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗公式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互属性</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸引力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>说服力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力公式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界公式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互公式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>attraction</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>persuation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色之间产生好感的程度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸引力 = 魅力 × 20 × （ 1 + 乘法修正值 ） +　加法修正值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>说服力 =（ 魅力 × 5 + 智力 × 5 )  × （ 1 + 乘法修正值 ） + 加法修正值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色交谈说服的属性，数值越大说服成功率越高</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>铳</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>矛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>棍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍者爪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁盔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>chest</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>布帽</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁甲</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>布衣</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮衣</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮帽</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>马匹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗包</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞镖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒针</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>药瓶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼服</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼帽</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作帽</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作服</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼镜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器属性加成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>joy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>愉悦值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>愉悦值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>愉悦</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>愉悦值 = 休闲场所LV × 5 × 天数 × （ 1 + 乘法修正值 ） + 加法修正值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色感受到愉快的指数，指数越高角色越乐于接受任务和投入生产</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>愉悦值上限为100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">愉悦值为0时，角色会拒绝接受任务，甚至背叛 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用针暗杀目标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -489,21 +1792,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,8 +1837,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -558,52 +1879,208 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -911,7 +2388,7 @@
   <dimension ref="A2:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="O2" sqref="O2:R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -948,7 +2425,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>8</v>
@@ -1102,7 +2579,7 @@
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1475,7 +2952,7 @@
       <c r="S23" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1483,98 +2960,486 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H10"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9" style="11"/>
-    <col min="2" max="2" width="10.875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="11"/>
-    <col min="5" max="5" width="10.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="9" style="19"/>
+    <col min="2" max="2" width="10.875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="19"/>
+    <col min="4" max="4" width="11.625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B1" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B2" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="1">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
+      <c r="F3" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B5" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B6" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="32"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="29"/>
+      <c r="B10" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="35"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="29"/>
+      <c r="B11" s="33" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="35"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="29"/>
+      <c r="B12" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34" t="s">
+        <v>406</v>
+      </c>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="35"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="29"/>
+      <c r="B13" s="36" t="s">
+        <v>408</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="38"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="11" t="s">
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="32"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="29"/>
+      <c r="B16" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="35"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="29"/>
+      <c r="B17" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="35"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="29"/>
+      <c r="B18" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="38"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="32"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="29"/>
+      <c r="B21" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37" t="s">
+        <v>403</v>
+      </c>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="38"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>420</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="32"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" s="29"/>
+      <c r="B24" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="38"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="29" t="s">
+        <v>456</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="32"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="29"/>
+      <c r="B27" s="36" t="s">
+        <v>459</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="38"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <mergeCells count="5">
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A26:A27"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1585,247 +3450,271 @@
   <dimension ref="B2:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="12"/>
-    <col min="3" max="3" width="15" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="12"/>
-    <col min="6" max="6" width="11.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="12"/>
+    <col min="1" max="2" width="9" style="11"/>
+    <col min="3" max="3" width="18.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="11"/>
+    <col min="6" max="6" width="11.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="11"/>
+    <col min="9" max="9" width="11.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="F2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="I2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>50</v>
+      <c r="L2" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>65</v>
+        <v>52</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="K3" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>67</v>
+        <v>54</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>69</v>
+        <v>55</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="K7" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B8" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="K7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="E8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>93</v>
+      <c r="H8" s="14" t="s">
+        <v>107</v>
       </c>
       <c r="I8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>96</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="14" t="s">
+        <v>97</v>
+      </c>
       <c r="I10" s="1"/>
-      <c r="K10" s="1" t="s">
-        <v>100</v>
+      <c r="K10" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="1"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>103</v>
+      </c>
       <c r="E11" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>108</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="1"/>
-      <c r="C12" s="14"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="B12" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B13" s="1"/>
-      <c r="C13" s="14"/>
+      <c r="C13" s="13"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="H13" s="1"/>
@@ -1835,7 +3724,7 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
-      <c r="C14" s="14"/>
+      <c r="C14" s="13"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="H14" s="1"/>
@@ -1845,7 +3734,7 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B15" s="1"/>
-      <c r="C15" s="14"/>
+      <c r="C15" s="13"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="H15" s="1"/>
@@ -1854,7 +3743,1132 @@
       <c r="L15" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9" style="19"/>
+    <col min="2" max="2" width="11.5" style="19" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="19"/>
+    <col min="6" max="6" width="22.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9" style="19"/>
+    <col min="10" max="11" width="20.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.875" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.25" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.875" style="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B2" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="J2" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B3" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B4" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B5" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B6" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="33" x14ac:dyDescent="0.35">
+      <c r="B7" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B8" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B9" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B10" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="33" x14ac:dyDescent="0.35">
+      <c r="B11" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B12" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B13" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="33" x14ac:dyDescent="0.35">
+      <c r="B14" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="33" x14ac:dyDescent="0.35">
+      <c r="B15" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="33" x14ac:dyDescent="0.35">
+      <c r="B16" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="33" x14ac:dyDescent="0.35">
+      <c r="B17" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="33" x14ac:dyDescent="0.35">
+      <c r="B18" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="33" x14ac:dyDescent="0.35">
+      <c r="B19" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B20" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="33" x14ac:dyDescent="0.35">
+      <c r="B21" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="33" x14ac:dyDescent="0.35">
+      <c r="B22" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="N22" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="33" x14ac:dyDescent="0.35">
+      <c r="B23" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="33" x14ac:dyDescent="0.35">
+      <c r="B24" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B25" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B26" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B27" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="E28" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="E29" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="J30" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="J31" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="J32" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J33" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J34" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J35" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K35" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J36" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="K36" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J37" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J38" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K38" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J39" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K39" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J40" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="K40" s="19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J41" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J42" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="K42" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J43" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K43" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J44" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="K44" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J45" s="19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="19" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B15" s="25" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="25" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="25" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="25" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="28"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="25" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="25" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="25" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="25" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="25" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="25" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B28" s="25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="25" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="25" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="25" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="25" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="25" t="s">
+        <v>413</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/config/shadowGuild.xlsx
+++ b/config/shadowGuild.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="角色" sheetId="1" r:id="rId1"/>
@@ -12,20 +12,21 @@
     <sheet name="能力" sheetId="3" r:id="rId3"/>
     <sheet name="品德" sheetId="4" r:id="rId4"/>
     <sheet name="装备" sheetId="6" r:id="rId5"/>
+    <sheet name="生产" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="570">
   <si>
     <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -41,19 +42,19 @@
       </rPr>
       <t>irtue</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>eccentricity</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>weapon</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>head</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -69,451 +70,451 @@
       </rPr>
       <t>hest</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>accessory</t>
   </si>
   <si>
     <t>combat</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>production</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>assassination</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>sociality</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>strength</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>agility</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>constitution</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>intelligence</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>荆轲</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>角色姓名：角色姓名分为真实人名和随机名称，随机名字由姓和名两个部分组成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>生产能力：在生产研究中的能力，该能力用于生产和研究的修正</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>能力：所有能力的上限值为10，最低值为0，一个角色最多拥有一种类型的3种能力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>暗杀能力：在暗杀方面的能力，该能力用于暗杀的修正</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>社交能力：在社交方面的能力，该能力用于社交的修正</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>烹饪5
 铁匠7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>剑术5
 刀术2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>毒药6
 爆炸3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>喝酒7
 跳舞5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>战斗能力：使用某种战斗手段的能力，该能力用于修正伤害值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>美德：角色的优良品行，品行可以影响角色的一些特殊选择</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>怪癖：角色的不良品行，怪癖可以影响角色的一些特殊选择</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>坚毅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>好色
 贪吃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>匕首</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>铁盔</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>皮甲</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>钻戒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>装备：分为武器、头、胸、挂件4大部分，可以用于修正角色能力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>速度 = 敏捷 × 20 × （ 1 + 乘法修正值） + 加法修正值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>生命 = 体质 × 25 × （ 1 + 乘法修正值） + 加法修正值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>战斗中可以承受击打的能力，生命力为0则失去战斗能力，可能死亡、重伤、失去知觉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>战斗中出手的速度，速度快的单位可以连续出手</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">伤害 = 力量 × 8 × （ 1 + 乘法修正值） + 加法修正值  </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>战斗中实际造成的伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>研究能力，加快研究速度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>在与NPC交互时天生吸引人的能力，魅力高的角色可以经常从事间谍活动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>charm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>charm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>角色属性：角色属性上限值为10，属性的影响，constitution生命值寿命，agility出手速度，strength攻击伤害，intelligence影响研发效果，charm影响对人的吸引力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>战斗能力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>能力介绍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>生产能力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>暗杀能力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>社交能力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>剑术</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>刀术</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>拳术</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>弓术</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>制皮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>锻造</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>草药</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>裁缝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>机关</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>烹饪</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>可以使用剑武器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>可以使用刀武器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>可以使用拳套武器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>弩术</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>可以使用弓武器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>可以使用弩武器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>可以使用火枪武器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>锻造武器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>制造药水</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>制造食物</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>制造特殊武器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>制造衣服</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>制造皮具</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>采矿</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>采集矿藏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>捕鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>种植</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>种植粮食</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>捕捉鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>矛术</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>可以使用长矛</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>马术</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>可以使用马匹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>易容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>毒药</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>催眠</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>茶道</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>赌博</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>插花</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>品酒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>舞蹈</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>吟诗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>斗犬</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>跑马</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>迷烟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>毒刃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>筒针</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>蹴鞠</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>炸弹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>铳术</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>忍术</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>可以使用特殊忍者武器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>棍术</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>可以使用棍棒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>辩论</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>驭蛇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>驱虫</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>珠宝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>制造珠宝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>远狙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>美德</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>怪癖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>beast hater</t>
@@ -949,833 +950,1272 @@
   </si>
   <si>
     <t>美德</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>怪癖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>动物杀手</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>clotter</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>步行者</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>健身</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>10%生命</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>大世界移动10%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>条件反射</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>10%速度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>10%用刀伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>快刀手</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>10%用剑伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>神箭手</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>剑豪</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>10%用弓伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>弩手</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>10%用弩伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>牧马人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>10%骑马伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>忍者大师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>10%忍术伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>黑寡妇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>交际花</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>直男癌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>男闺蜜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>外交官</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>隐匿者</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>肥胖者</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>厌食症</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>减少体力恢复速度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>大世界移动-10%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对动物有10%伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>畏犬者</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>受到动物伤害10%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>自闭症</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>自大狂</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>和人交往减少10%舒适度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>敛财者</t>
   </si>
   <si>
     <t>小气鬼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>会侵吞别人的资产</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>很少轻易花钱购买道具</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>易怒者</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>逃脱概率+10%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>无法进入赌场</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>酒鬼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>无法进入冥想室</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>性变态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>厨神</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>最强大脑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>病痨</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>老千</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>虐待狂</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>赏金杀手</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>杀人狂</t>
   </si>
   <si>
     <t>残疾</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>生命值-10%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>速度-10%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>胆小鬼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>自虐</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>近视眼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>无法使用弓箭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>神枪手</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>10%用铳伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>黑暗料理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>烹饪效果-20%
 概率烹制出黑暗料理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>赌鬼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>和人交谈减少20%说服力
 智力加5%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>和人交谈成功率-20%
 战斗伤害+5%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>战斗时提高10%伤害
 魅力-10%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>暗杀时成功率提高10%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>研究效果20%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>烹饪效果20%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对男性额外20%伤害
 和男性相处-10%吸引</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对女性额外20%伤害
 和女性相处-10%吸引</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对女性有额外20%吸引
 对女性减少10%伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>虔诚者</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>和人交谈增加20%说服力
 战斗减少10%伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>艺伎</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对男性有额外20%吸引
 对男性减少10%伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>茶艺师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>舞蹈能力+10%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>茶艺能力+10%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>拳击手</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>拳术伤害提高20%
 其他伤害减少-10%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>无法使用暗杀手段
 伤害提高10%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>骑手</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>马术能力+10%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>生命恢复提高10%
 战斗时减少10%伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>生命恢复-10%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>只喜欢赌场
 赌博增加20%欢愉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>只喜欢冥想室
 冥想增加20%欢愉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>只喜欢喝酒
 喝酒增加20%欢愉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>领袖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>作为队长时</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>女权主义</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>不会与男性组队</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>男权主义</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>不会与女性组队</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>与男性组队时伤害+10%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>与女性组队时伤害+10%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>男同主义</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>女同主义</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>一级属性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>生命值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>速度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>暴击率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>战斗属性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>体质</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>敏捷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>力量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>智力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>魅力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>hp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>speed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>damage</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>crit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>reasearch</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>魅力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>charm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>魅力值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>研究值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>生产值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>product</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>movement</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>世界属性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>能力属性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>暗杀值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>assassination</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>生产值 = （ 体质 × 5 + 智力 × 5 ）× （ 1 + 乘法修正值 ） + 加法修正值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">魅力值 = 颜值 × 10 × （ 1 + 乘法修正值） + 加法修正值  </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">研究值 = 智力 × 10 × （ 1 + 乘法修正值） + 加法修正值  </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>生产效率的属性，数值越大生产效率越高</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>暗杀能力的属性，数值越大暗杀成功率越高</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>暗杀值 = （ 敏捷 × 5 + 智力 × 5 ）× （ 1 + 乘法修正值 ） + 加法修正值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>移动力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>移动力 = （ 体质 × 5 + 敏捷 × 5 )  × （ 1 + 乘法修正值 ） + 加法修正值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>大世界地图的移动能力，数值越大移动越快</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>回复力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>restoration</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">回复力 = 体质 × 10 × （ 1 + 乘法修正值 ） + 加法修正值       </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>角色生命的恢复能力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>格挡率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>block</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>战斗中造成致命一击的概率，致命一击将造成1.5倍伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>暴击率 = （ 敏捷 × 10 + 力量 × 5） × （ 1 + 乘法修正值 ） + 加法修正值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">格挡率 = （ 体质 × 10 + 力量 × 5） × （ 1 + 乘法修正值 ） + 加法修正值 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>战斗中减少伤害的概率，抵消50%的伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>战斗公式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>交互属性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>吸引力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>说服力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>能力公式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>世界公式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>交互公式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>attraction</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>persuation</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>角色之间产生好感的程度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>吸引力 = 魅力 × 20 × （ 1 + 乘法修正值 ） +　加法修正值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>说服力 =（ 魅力 × 5 + 智力 × 5 )  × （ 1 + 乘法修正值 ） + 加法修正值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>角色交谈说服的属性，数值越大说服成功率越高</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>剑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>刀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>拳</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>弓</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>弩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>铳</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>矛</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>棍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>忍者爪</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>铁盔</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>chest</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>布帽</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>铁甲</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>布衣</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>皮衣</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>皮帽</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>马匹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>医疗包</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>飞镖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>毒针</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>药瓶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>礼服</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>礼帽</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>工作帽</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>工作服</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>眼镜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>武器属性加成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>敏捷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>力量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>智力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>joy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>愉悦值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>愉悦值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>愉悦</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>愉悦值 = 休闲场所LV × 5 × 天数 × （ 1 + 乘法修正值 ） + 加法修正值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>角色感受到愉快的指数，指数越高角色越乐于接受任务和投入生产</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>愉悦值上限为100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">愉悦值为0时，角色会拒绝接受任务，甚至背叛 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>用针暗杀目标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>head</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>chest</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>assessory</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性分配</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度百分比</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害百分比</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造室</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>药房</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠宝</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>裁缝</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>花卷</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>包子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋糕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁制头盔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁制盔甲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁制胸甲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>粥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>油条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>团子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>窝窝头</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>馅饼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗铁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗粮食</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗草药</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗宝石</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗皮革</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要技能1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要技能2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>烹饪1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>烹饪2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>烹饪1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>烹饪2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>烹饪2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>烹饪3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>生鱼片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆腐</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙拉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>急救</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>丸子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜剑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>袖箭</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸药包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>烹饪1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>烹饪1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>草药1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>草药1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠宝1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>机关1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>机关1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>村正</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>反曲弓</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>裁缝1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产规则</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.一个店铺最多容纳5个人进行生产</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.每个生产物品上显示生产所需要的技能数量，比如烹饪5，则意味着需要5个具有烹饪能力的成员进行烹饪。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.1 如果生产物品所需烹饪5、草药2，则意味着需要5个具有烹饪能力，2个草药能力的成员进行烹饪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>制皮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛角帽</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>裁缝1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>制皮1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛角帽</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>制皮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火腿</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复药</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>解毒药</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒药</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷幻剂</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>河豚毒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻药</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>草药1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>草药1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>草药1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>草药1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>草药2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>草药2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷魂水</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>草药3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>化尸水</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>草药1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力药水</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>草药1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>急救1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.生产物品需要技能数量同时也需要消耗金币，金币不足则无法生产</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.在店铺放置成员，成员条件满足则可以用于生产，玩家点击商品则开始生产，玩家可以选择生产数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.生产物资可以用于携带</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1856,7 +2296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1985,102 +2425,161 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2388,7 +2887,7 @@
   <dimension ref="A2:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:R3"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2952,7 +3451,7 @@
       <c r="S23" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2962,474 +3461,474 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9" style="19"/>
-    <col min="2" max="2" width="10.875" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="19"/>
-    <col min="4" max="4" width="11.625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="9" style="17"/>
+    <col min="2" max="2" width="10.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="17"/>
+    <col min="4" max="4" width="11.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="23" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="22" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="17" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="23" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="22" t="s">
         <v>417</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="M7" s="24" t="s">
+      <c r="M7" s="22" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="36" t="s">
         <v>410</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31" t="s">
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="32"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="29"/>
-      <c r="B10" s="33" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="35"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="32"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="29"/>
-      <c r="B11" s="33" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="35"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="32"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="29"/>
-      <c r="B12" s="33" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="30" t="s">
         <v>407</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31" t="s">
         <v>406</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="35"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="32"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="29"/>
-      <c r="B13" s="36" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="33" t="s">
         <v>408</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34" t="s">
         <v>409</v>
       </c>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="38"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="35"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="36" t="s">
         <v>414</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31" t="s">
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="32"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="29"/>
-      <c r="B16" s="33" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="30" t="s">
         <v>392</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="35"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="32"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="29"/>
-      <c r="B17" s="33" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="30" t="s">
         <v>391</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34" t="s">
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31" t="s">
         <v>394</v>
       </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="35"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="32"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="29"/>
-      <c r="B18" s="36" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="33" t="s">
         <v>396</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="38"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="35"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="36" t="s">
         <v>415</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="27" t="s">
         <v>398</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31" t="s">
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="32"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="29"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="29"/>
-      <c r="B21" s="36" t="s">
+      <c r="A21" s="36"/>
+      <c r="B21" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37" t="s">
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34" t="s">
         <v>403</v>
       </c>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="38"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="35"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="36" t="s">
         <v>416</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31" t="s">
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28" t="s">
         <v>419</v>
       </c>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="32"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="29"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" s="29"/>
-      <c r="B24" s="36" t="s">
+      <c r="A24" s="36"/>
+      <c r="B24" s="33" t="s">
         <v>421</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37" t="s">
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="38"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="35"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="36" t="s">
         <v>456</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31" t="s">
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28" t="s">
         <v>458</v>
       </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="32"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="29"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" s="29"/>
-      <c r="B27" s="36" t="s">
+      <c r="A27" s="36"/>
+      <c r="B27" s="33" t="s">
         <v>459</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37" t="s">
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34" t="s">
         <v>460</v>
       </c>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="38"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3439,7 +3938,7 @@
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A26:A27"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -3449,8 +3948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3743,7 +4242,7 @@
       <c r="L15" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -3753,876 +4252,876 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9" style="19"/>
-    <col min="2" max="2" width="11.5" style="19" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="19"/>
-    <col min="6" max="6" width="22.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9" style="19"/>
-    <col min="10" max="11" width="20.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.875" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.875" style="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="9" style="17"/>
+    <col min="2" max="2" width="11.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="17"/>
+    <col min="6" max="6" width="22.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9" style="17"/>
+    <col min="10" max="11" width="20.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="16" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="J2" s="19" t="s">
+      <c r="F2" s="38"/>
+      <c r="J2" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="17" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="17" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="17" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="17" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="17" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="33" x14ac:dyDescent="0.35">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="17" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="17" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="N9" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="O9" s="17" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="N10" s="19" t="s">
+      <c r="N10" s="17" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="33" x14ac:dyDescent="0.35">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="L11" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="M11" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="N11" s="19" t="s">
+      <c r="N11" s="17" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="M12" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="17" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="J13" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="N13" s="19" t="s">
+      <c r="N13" s="17" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="33" x14ac:dyDescent="0.35">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="M14" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="N14" s="19" t="s">
+      <c r="N14" s="17" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="33" x14ac:dyDescent="0.35">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="K15" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="M15" s="19" t="s">
+      <c r="M15" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="N15" s="19" t="s">
+      <c r="N15" s="17" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="33" x14ac:dyDescent="0.35">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="K16" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="N16" s="19" t="s">
+      <c r="N16" s="17" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="33" x14ac:dyDescent="0.35">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="K17" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="L17" s="19" t="s">
+      <c r="L17" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="M17" s="19" t="s">
+      <c r="M17" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="N17" s="19" t="s">
+      <c r="N17" s="17" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="33" x14ac:dyDescent="0.35">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="K18" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="L18" s="19" t="s">
+      <c r="L18" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="M18" s="19" t="s">
+      <c r="M18" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="N18" s="19" t="s">
+      <c r="N18" s="17" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="33" x14ac:dyDescent="0.35">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="L19" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="N19" s="19" t="s">
+      <c r="N19" s="17" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="N20" s="19" t="s">
+      <c r="N20" s="17" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="33" x14ac:dyDescent="0.35">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="J21" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="K21" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="L21" s="19" t="s">
+      <c r="L21" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="N21" s="19" t="s">
+      <c r="N21" s="17" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="33" x14ac:dyDescent="0.35">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="L22" s="19" t="s">
+      <c r="L22" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="N22" s="19" t="s">
+      <c r="N22" s="17" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="33" x14ac:dyDescent="0.35">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="K23" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="L23" s="19" t="s">
+      <c r="L23" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="N23" s="19" t="s">
+      <c r="N23" s="17" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="33" x14ac:dyDescent="0.35">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="21" t="s">
         <v>345</v>
       </c>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="K24" s="19" t="s">
+      <c r="K24" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="L24" s="19" t="s">
+      <c r="L24" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="N24" s="19" t="s">
+      <c r="N24" s="17" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="K25" s="19" t="s">
+      <c r="K25" s="17" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="J26" s="19" t="s">
+      <c r="J26" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="K26" s="19" t="s">
+      <c r="K26" s="17" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="J27" s="19" t="s">
+      <c r="J27" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="K27" s="19" t="s">
+      <c r="K27" s="17" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="E28" s="21" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="E28" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="J28" s="19" t="s">
+      <c r="J28" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="K28" s="19" t="s">
+      <c r="K28" s="17" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="J29" s="19" t="s">
+      <c r="J29" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="K29" s="19" t="s">
+      <c r="K29" s="17" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="J30" s="19" t="s">
+      <c r="J30" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="K30" s="19" t="s">
+      <c r="K30" s="17" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="J31" s="19" t="s">
+      <c r="J31" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="K31" s="19" t="s">
+      <c r="K31" s="17" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="J32" s="19" t="s">
+      <c r="J32" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="K32" s="19" t="s">
+      <c r="K32" s="17" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="33" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J33" s="19" t="s">
+      <c r="J33" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="K33" s="19" t="s">
+      <c r="K33" s="17" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="34" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J34" s="19" t="s">
+      <c r="J34" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="K34" s="19" t="s">
+      <c r="K34" s="17" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="35" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J35" s="19" t="s">
+      <c r="J35" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="K35" s="19" t="s">
+      <c r="K35" s="17" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="36" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J36" s="19" t="s">
+      <c r="J36" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="K36" s="19" t="s">
+      <c r="K36" s="17" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="37" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J37" s="19" t="s">
+      <c r="J37" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="K37" s="19" t="s">
+      <c r="K37" s="17" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="38" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J38" s="19" t="s">
+      <c r="J38" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="K38" s="19" t="s">
+      <c r="K38" s="17" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="39" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J39" s="19" t="s">
+      <c r="J39" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="K39" s="19" t="s">
+      <c r="K39" s="17" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="40" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J40" s="19" t="s">
+      <c r="J40" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="K40" s="19" t="s">
+      <c r="K40" s="17" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="41" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J41" s="19" t="s">
+      <c r="J41" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="K41" s="19" t="s">
+      <c r="K41" s="17" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="42" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J42" s="19" t="s">
+      <c r="J42" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="K42" s="19" t="s">
+      <c r="K42" s="17" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="43" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J43" s="19" t="s">
+      <c r="J43" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="K43" s="19" t="s">
+      <c r="K43" s="17" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="44" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J44" s="19" t="s">
+      <c r="J44" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="K44" s="19" t="s">
+      <c r="K44" s="17" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="45" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J45" s="19" t="s">
+      <c r="J45" s="17" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4631,39 +5130,39 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E35"/>
+  <dimension ref="B2:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9" style="19"/>
+    <col min="1" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
         <v>423</v>
       </c>
@@ -4677,198 +5176,1141 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="25" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>434</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="25" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="25" t="s">
         <v>444</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="25" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="25" t="s">
         <v>446</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="25" t="s">
         <v>447</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="25" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="19" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="39" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B14" s="25" t="s">
+      <c r="D13" s="43" t="s">
+        <v>466</v>
+      </c>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="23" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B15" s="25" t="s">
+      <c r="D14" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>463</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="23" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="25" t="s">
+      <c r="D15" s="46" t="s">
+        <v>469</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="23" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="25" t="s">
+      <c r="D16" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B17" s="23" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="25" t="s">
+      <c r="D17" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18" s="23" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="28"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="25" t="s">
+      <c r="D18" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B19" s="26"/>
+      <c r="D19" s="46" t="s">
+        <v>470</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B20" s="23" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="25" t="s">
+      <c r="D20" s="46" t="s">
+        <v>471</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B21" s="23" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="25" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B23" s="25" t="s">
+      <c r="F21" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B22" s="46" t="s">
+        <v>467</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B23" s="23" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B24" s="25" t="s">
+      <c r="G23" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B24" s="23" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B26" s="25" t="s">
+      <c r="G24" s="23" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B27" s="25" t="s">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G25" s="23" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B28" s="25" t="s">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B26" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="G26" s="23" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B29" s="25" t="s">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B27" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="G27" s="23" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B31" s="25" t="s">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B28" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="G28" s="23" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B32" s="25" t="s">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B29" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="G29" s="23" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="25" t="s">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G30" s="23" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="25" t="s">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B31" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="G31" s="23" t="s">
         <v>413</v>
       </c>
     </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B32" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="G32" s="46" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G33" s="46" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B34" s="23" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B35" s="23" t="s">
+        <v>413</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <mergeCells count="1">
+    <mergeCell ref="D13:G13"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:V31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" s="39" t="s">
+        <v>496</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>495</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>497</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>498</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>499</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="11"/>
+      <c r="T2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" s="11"/>
+      <c r="V2" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="49" t="s">
+        <v>476</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="H3" s="40"/>
+      <c r="I3" s="49" t="s">
+        <v>477</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="L3" s="40"/>
+      <c r="M3" s="49" t="s">
+        <v>478</v>
+      </c>
+      <c r="N3" s="40"/>
+      <c r="O3" s="49" t="s">
+        <v>479</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="11"/>
+      <c r="T3" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="U3" s="11"/>
+      <c r="V3" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A4" s="41" t="s">
+        <v>481</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>502</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>508</v>
+      </c>
+      <c r="G4" s="41"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="50" t="s">
+        <v>547</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>553</v>
+      </c>
+      <c r="K4" s="50" t="s">
+        <v>566</v>
+      </c>
+      <c r="L4" s="40"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="50"/>
+      <c r="R4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" s="11"/>
+      <c r="T4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U4" s="11"/>
+      <c r="V4" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5" s="41" t="s">
+        <v>480</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>502</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41" t="s">
+        <v>424</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>509</v>
+      </c>
+      <c r="G5" s="41"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="50" t="s">
+        <v>548</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>554</v>
+      </c>
+      <c r="K5" s="50"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="50"/>
+      <c r="R5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S5" s="11"/>
+      <c r="T5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="U5" s="11"/>
+      <c r="V5" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6" s="41" t="s">
+        <v>482</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>502</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41" t="s">
+        <v>425</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>508</v>
+      </c>
+      <c r="G6" s="41"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="50" t="s">
+        <v>549</v>
+      </c>
+      <c r="J6" s="50" t="s">
+        <v>555</v>
+      </c>
+      <c r="K6" s="50"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="50"/>
+      <c r="R6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S6" s="11"/>
+      <c r="T6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="U6" s="11"/>
+      <c r="V6" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>504</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>508</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="50" t="s">
+        <v>550</v>
+      </c>
+      <c r="J7" s="50" t="s">
+        <v>556</v>
+      </c>
+      <c r="K7" s="50"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="50"/>
+      <c r="R7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7" s="11"/>
+      <c r="T7" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="U7" s="11"/>
+      <c r="V7" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>503</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41" t="s">
+        <v>427</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>510</v>
+      </c>
+      <c r="G8" s="41"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="50" t="s">
+        <v>551</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>557</v>
+      </c>
+      <c r="K8" s="50" t="s">
+        <v>559</v>
+      </c>
+      <c r="L8" s="40"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="50"/>
+      <c r="R8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S8" s="11"/>
+      <c r="T8" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="U8" s="11"/>
+      <c r="V8" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9" s="41" t="s">
+        <v>488</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>505</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>511</v>
+      </c>
+      <c r="G9" s="41"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="50" t="s">
+        <v>552</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>558</v>
+      </c>
+      <c r="K9" s="50"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="50"/>
+      <c r="R9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S9" s="11"/>
+      <c r="T9" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="U9" s="11"/>
+      <c r="V9" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10" s="41" t="s">
+        <v>489</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>506</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41" t="s">
+        <v>429</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>512</v>
+      </c>
+      <c r="G10" s="41"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="50" t="s">
+        <v>560</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>561</v>
+      </c>
+      <c r="K10" s="50"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="50"/>
+      <c r="R10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S10" s="11"/>
+      <c r="T10" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="U10" s="11"/>
+      <c r="V10" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A11" s="41" t="s">
+        <v>490</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>506</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41" t="s">
+        <v>431</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>510</v>
+      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="50" t="s">
+        <v>562</v>
+      </c>
+      <c r="J11" s="50" t="s">
+        <v>563</v>
+      </c>
+      <c r="K11" s="50"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="50"/>
+      <c r="R11" s="41" t="s">
+        <v>519</v>
+      </c>
+      <c r="S11" s="11"/>
+      <c r="T11" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="U11" s="11"/>
+      <c r="V11" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A12" s="47" t="s">
+        <v>491</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41" t="s">
+        <v>430</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>513</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="50" t="s">
+        <v>564</v>
+      </c>
+      <c r="J12" s="50" t="s">
+        <v>565</v>
+      </c>
+      <c r="K12" s="50"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="50"/>
+      <c r="R12" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="S12" s="11"/>
+      <c r="T12" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="U12" s="11"/>
+      <c r="V12" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A13" s="50" t="s">
+        <v>492</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="48" t="s">
+        <v>485</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>514</v>
+      </c>
+      <c r="G13" s="48"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="50"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A14" s="50" t="s">
+        <v>493</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="48" t="s">
+        <v>486</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>515</v>
+      </c>
+      <c r="G14" s="48"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="50"/>
+      <c r="R14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A15" s="50" t="s">
+        <v>494</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="C15" s="50"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="48" t="s">
+        <v>487</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>514</v>
+      </c>
+      <c r="G15" s="48"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="50"/>
+      <c r="R15" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="R16" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17" s="50" t="s">
+        <v>520</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>524</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>526</v>
+      </c>
+      <c r="D17" s="40"/>
+      <c r="E17" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>529</v>
+      </c>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="R17" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A18" s="50" t="s">
+        <v>516</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>525</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>527</v>
+      </c>
+      <c r="D18" s="40"/>
+      <c r="E18" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>530</v>
+      </c>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="R18" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A19" s="50" t="s">
+        <v>517</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>502</v>
+      </c>
+      <c r="C19" s="50"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="50" t="s">
+        <v>523</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="G19" s="50" t="s">
+        <v>531</v>
+      </c>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="R19" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A20" s="50" t="s">
+        <v>518</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>502</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>528</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="50" t="s">
+        <v>532</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>533</v>
+      </c>
+      <c r="G20" s="50"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="R20" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21" s="50" t="s">
+        <v>546</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>524</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>540</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="50" t="s">
+        <v>534</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>545</v>
+      </c>
+      <c r="G21" s="50" t="s">
+        <v>535</v>
+      </c>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="R21" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="50" t="s">
+        <v>541</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>543</v>
+      </c>
+      <c r="G22" s="50"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="R22" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="50" t="s">
+        <v>544</v>
+      </c>
+      <c r="F23" s="50" t="s">
+        <v>542</v>
+      </c>
+      <c r="G23" s="50"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="R23" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A25" s="39" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A26" s="39" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A27" s="51" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A28" s="51" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A29" s="51" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A30" s="39" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A31" s="51" t="s">
+        <v>569</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/config/shadowGuild.xlsx
+++ b/config/shadowGuild.xlsx
@@ -4,29 +4,31 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="角色" sheetId="1" r:id="rId1"/>
     <sheet name="属性" sheetId="2" r:id="rId2"/>
-    <sheet name="能力" sheetId="3" r:id="rId3"/>
-    <sheet name="品德" sheetId="4" r:id="rId4"/>
-    <sheet name="装备" sheetId="6" r:id="rId5"/>
-    <sheet name="生产" sheetId="7" r:id="rId6"/>
+    <sheet name="规则" sheetId="8" r:id="rId3"/>
+    <sheet name="物品" sheetId="9" r:id="rId4"/>
+    <sheet name="能力" sheetId="3" r:id="rId5"/>
+    <sheet name="品德" sheetId="4" r:id="rId6"/>
+    <sheet name="装备" sheetId="6" r:id="rId7"/>
+    <sheet name="生产" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="677">
   <si>
     <t>id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -42,19 +44,19 @@
       </rPr>
       <t>irtue</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>eccentricity</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>weapon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>head</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -70,451 +72,451 @@
       </rPr>
       <t>hest</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>accessory</t>
   </si>
   <si>
     <t>combat</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>production</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>assassination</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>sociality</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>strength</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>agility</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>constitution</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>intelligence</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>荆轲</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>角色姓名：角色姓名分为真实人名和随机名称，随机名字由姓和名两个部分组成</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>生产能力：在生产研究中的能力，该能力用于生产和研究的修正</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>能力：所有能力的上限值为10，最低值为0，一个角色最多拥有一种类型的3种能力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>暗杀能力：在暗杀方面的能力，该能力用于暗杀的修正</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>社交能力：在社交方面的能力，该能力用于社交的修正</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>烹饪5
 铁匠7</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>剑术5
 刀术2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>毒药6
 爆炸3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>喝酒7
 跳舞5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>战斗能力：使用某种战斗手段的能力，该能力用于修正伤害值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>美德：角色的优良品行，品行可以影响角色的一些特殊选择</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>怪癖：角色的不良品行，怪癖可以影响角色的一些特殊选择</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>坚毅</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>好色
 贪吃</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>匕首</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>铁盔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>皮甲</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>钻戒</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>装备：分为武器、头、胸、挂件4大部分，可以用于修正角色能力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>速度 = 敏捷 × 20 × （ 1 + 乘法修正值） + 加法修正值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>生命 = 体质 × 25 × （ 1 + 乘法修正值） + 加法修正值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>战斗中可以承受击打的能力，生命力为0则失去战斗能力，可能死亡、重伤、失去知觉</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>战斗中出手的速度，速度快的单位可以连续出手</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">伤害 = 力量 × 8 × （ 1 + 乘法修正值） + 加法修正值  </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>战斗中实际造成的伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>研究能力，加快研究速度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>在与NPC交互时天生吸引人的能力，魅力高的角色可以经常从事间谍活动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>charm</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>charm</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>角色属性：角色属性上限值为10，属性的影响，constitution生命值寿命，agility出手速度，strength攻击伤害，intelligence影响研发效果，charm影响对人的吸引力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>战斗能力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>能力介绍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>生产能力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>暗杀能力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>社交能力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>剑术</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>刀术</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>拳术</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>弓术</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>制皮</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>锻造</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>草药</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>裁缝</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>机关</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>烹饪</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>可以使用剑武器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>可以使用刀武器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>可以使用拳套武器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>弩术</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>可以使用弓武器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>可以使用弩武器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>可以使用火枪武器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>锻造武器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>制造药水</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>制造食物</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>制造特殊武器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>制造衣服</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>制造皮具</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>采矿</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>采集矿藏</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>捕鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>种植</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>种植粮食</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>捕捉鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>矛术</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>可以使用长矛</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>马术</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>可以使用马匹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>易容</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>毒药</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>催眠</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>茶道</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>赌博</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>插花</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>品酒</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>舞蹈</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>吟诗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>斗犬</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>跑马</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>迷烟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>毒刃</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>筒针</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>蹴鞠</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>炸弹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>铳术</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>忍术</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>可以使用特殊忍者武器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>棍术</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>可以使用棍棒</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>辩论</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>驭蛇</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>驱虫</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>珠宝</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>制造珠宝</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>远狙</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>美德</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>怪癖</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>beast hater</t>
@@ -950,1259 +952,1804 @@
   </si>
   <si>
     <t>美德</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>怪癖</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>动物杀手</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>clotter</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>步行者</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>健身</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>10%生命</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>大世界移动10%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>条件反射</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>10%速度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>10%用刀伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>快刀手</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>10%用剑伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>神箭手</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>剑豪</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>10%用弓伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>弩手</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>10%用弩伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>牧马人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>10%骑马伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>忍者大师</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>10%忍术伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>黑寡妇</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>交际花</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>直男癌</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>男闺蜜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>外交官</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>隐匿者</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>肥胖者</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>厌食症</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>减少体力恢复速度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>大世界移动-10%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对动物有10%伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>畏犬者</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>受到动物伤害10%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>自闭症</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>自大狂</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>和人交往减少10%舒适度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>敛财者</t>
   </si>
   <si>
     <t>小气鬼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>会侵吞别人的资产</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>很少轻易花钱购买道具</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>易怒者</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>逃脱概率+10%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>无法进入赌场</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>酒鬼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>无法进入冥想室</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>性变态</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>厨神</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>最强大脑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>病痨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>老千</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>虐待狂</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>赏金杀手</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>杀人狂</t>
   </si>
   <si>
     <t>残疾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>生命值-10%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>速度-10%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>胆小鬼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>自虐</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>近视眼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>无法使用弓箭</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>神枪手</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>10%用铳伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>黑暗料理</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>烹饪效果-20%
 概率烹制出黑暗料理</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>赌鬼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>和人交谈减少20%说服力
 智力加5%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>和人交谈成功率-20%
 战斗伤害+5%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>战斗时提高10%伤害
 魅力-10%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>暗杀时成功率提高10%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>研究效果20%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>烹饪效果20%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对男性额外20%伤害
 和男性相处-10%吸引</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对女性额外20%伤害
 和女性相处-10%吸引</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对女性有额外20%吸引
 对女性减少10%伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>虔诚者</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>和人交谈增加20%说服力
 战斗减少10%伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>艺伎</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对男性有额外20%吸引
 对男性减少10%伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>茶艺师</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>舞蹈能力+10%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>茶艺能力+10%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>拳击手</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>拳术伤害提高20%
 其他伤害减少-10%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>无法使用暗杀手段
 伤害提高10%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>骑手</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>马术能力+10%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>生命恢复提高10%
 战斗时减少10%伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>生命恢复-10%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>只喜欢赌场
 赌博增加20%欢愉</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>只喜欢冥想室
 冥想增加20%欢愉</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>只喜欢喝酒
 喝酒增加20%欢愉</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>领袖</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>作为队长时</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>女权主义</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>不会与男性组队</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>男权主义</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>不会与女性组队</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>与男性组队时伤害+10%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>与女性组队时伤害+10%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>男同主义</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>女同主义</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>一级属性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>生命值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>速度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>暴击率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>战斗属性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>体质</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>敏捷</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>力量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>智力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>魅力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>hp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>speed</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>damage</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>crit</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>reasearch</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>魅力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>charm</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>魅力值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>研究值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>生产值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>product</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>movement</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>世界属性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>能力属性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>暗杀值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>assassination</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>生产值 = （ 体质 × 5 + 智力 × 5 ）× （ 1 + 乘法修正值 ） + 加法修正值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">魅力值 = 颜值 × 10 × （ 1 + 乘法修正值） + 加法修正值  </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">研究值 = 智力 × 10 × （ 1 + 乘法修正值） + 加法修正值  </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>生产效率的属性，数值越大生产效率越高</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>暗杀能力的属性，数值越大暗杀成功率越高</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>暗杀值 = （ 敏捷 × 5 + 智力 × 5 ）× （ 1 + 乘法修正值 ） + 加法修正值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>移动力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>移动力 = （ 体质 × 5 + 敏捷 × 5 )  × （ 1 + 乘法修正值 ） + 加法修正值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>大世界地图的移动能力，数值越大移动越快</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>回复力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>restoration</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">回复力 = 体质 × 10 × （ 1 + 乘法修正值 ） + 加法修正值       </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡率</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>block</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗中造成致命一击的概率，致命一击将造成1.5倍伤害</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率 = （ 敏捷 × 10 + 力量 × 5） × （ 1 + 乘法修正值 ） + 加法修正值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">格挡率 = （ 体质 × 10 + 力量 × 5） × （ 1 + 乘法修正值 ） + 加法修正值 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗中减少伤害的概率，抵消50%的伤害</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗公式</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互属性</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸引力</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>说服力</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力公式</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界公式</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互公式</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>attraction</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>persuation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色之间产生好感的程度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸引力 = 魅力 × 20 × （ 1 + 乘法修正值 ） +　加法修正值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>说服力 =（ 魅力 × 5 + 智力 × 5 )  × （ 1 + 乘法修正值 ） + 加法修正值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色交谈说服的属性，数值越大说服成功率越高</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>铳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>矛</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>棍</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍者爪</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁盔</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>chest</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>布帽</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁甲</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>布衣</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮衣</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮帽</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>马匹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗包</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞镖</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒针</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>药瓶</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼服</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼帽</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作帽</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作服</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼镜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器属性加成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>joy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>愉悦值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>愉悦值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>愉悦</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>愉悦值 = 休闲场所LV × 5 × 天数 × （ 1 + 乘法修正值 ） + 加法修正值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色感受到愉快的指数，指数越高角色越乐于接受任务和投入生产</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>愉悦值上限为100</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">愉悦值为0时，角色会拒绝接受任务，甚至背叛 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用针暗杀目标</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>head</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>chest</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>assessory</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性分配</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度百分比</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害百分比</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造室</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>药房</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠宝</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>裁缝</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>花卷</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>包子</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋糕</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁制头盔</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁制盔甲</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁制胸甲</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>粥</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>油条</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉面</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>团子</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>窝窝头</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>馅饼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗铁</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗粮食</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗草药</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗宝石</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗皮革</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要技能1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要技能2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>烹饪1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>烹饪2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>烹饪1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>烹饪2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>烹饪2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>烹饪3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>生鱼片</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆腐</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙拉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>急救</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>丸子</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜剑</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>袖箭</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸药包</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>烹饪1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>烹饪1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>草药1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>草药1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠宝1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>机关1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>机关1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>村正</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>反曲弓</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>裁缝1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产规则</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.一个店铺最多容纳5个人进行生产</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.每个生产物品上显示生产所需要的技能数量，比如烹饪5，则意味着需要5个具有烹饪能力的成员进行烹饪。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.1 如果生产物品所需烹饪5、草药2，则意味着需要5个具有烹饪能力，2个草药能力的成员进行烹饪</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>制皮</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛角帽</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>裁缝1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>制皮1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛角帽</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>制皮</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>火腿</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复药</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解毒药</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒药</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷幻剂</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>河豚毒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻药</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>草药1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>草药1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>草药1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>草药1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>草药2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>草药2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷魂水</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>草药3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>化尸水</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>草药1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力药水</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>草药1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>急救1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.生产物品需要技能数量同时也需要消耗金币，金币不足则无法生产</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.在店铺放置成员，成员条件满足则可以用于生产，玩家点击商品则开始生产，玩家可以选择生产数量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.生产物资可以用于携带</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.生产任务，比如完生产10个馒头，获得金额，参与生产的单位会获得经验值，经验提升后技能等级会提升，也有一定肯能激活新的技能</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.战斗任务，完成送货到指定目的地，路程行走时，可能会遇到劫匪，遇到劫匪</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nimal</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ool</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sMale</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pee</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Animal</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sMale</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为动物</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为男性</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃脱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>excape</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>逃脱 =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> （ 敏捷 × 10 + 智力 × 10 ）* ( 1 + 乘法修正值 ） + 加法修正值      </t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>角色生命的恢复能力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>block</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗中造成致命一击的概率，致命一击将造成1.5倍伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率 = （ 敏捷 × 10 + 力量 × 5） × （ 1 + 乘法修正值 ） + 加法修正值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">格挡率 = （ 体质 × 10 + 力量 × 5） × （ 1 + 乘法修正值 ） + 加法修正值 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗中减少伤害的概率，抵消50%的伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗公式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>交互属性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸引力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>说服力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>能力公式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界公式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>交互公式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>attraction</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>persuation</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色之间产生好感的程度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸引力 = 魅力 × 20 × （ 1 + 乘法修正值 ） +　加法修正值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>说服力 =（ 魅力 × 5 + 智力 × 5 )  × （ 1 + 乘法修正值 ） + 加法修正值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色交谈说服的属性，数值越大说服成功率越高</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>拳</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>弩</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>铳</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>矛</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>棍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>忍者爪</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁盔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>chest</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>布帽</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁甲</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>布衣</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮衣</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮帽</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>马匹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>医疗包</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞镖</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒针</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>药瓶</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼服</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼帽</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作帽</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作服</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>眼镜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器属性加成</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>敏捷</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>joy</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>愉悦值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>愉悦值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>愉悦</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>愉悦值 = 休闲场所LV × 5 × 天数 × （ 1 + 乘法修正值 ） + 加法修正值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色感受到愉快的指数，指数越高角色越乐于接受任务和投入生产</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>愉悦值上限为100</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">愉悦值为0时，角色会拒绝接受任务，甚至背叛 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>用针暗杀目标</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>weapon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>head</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>chest</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>assessory</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性分配</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度百分比</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害百分比</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>锻造室</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>药房</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>珠宝</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>裁缝</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>花卷</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>馒头</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>包子</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛋糕</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>面包</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁制头盔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁制盔甲</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁制胸甲</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>粥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>油条</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉面</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>团子</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>窝窝头</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>饺子</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>馅饼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗铁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗粮食</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗草药</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗宝石</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗皮革</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要技能1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要技能2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>烹饪1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>烹饪2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>烹饪1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>烹饪2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>烹饪2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>烹饪3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>锻造1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>锻造1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>锻造2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>锻造2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>锻造2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>锻造3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>锻造3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>锻造3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>生鱼片</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆腐</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙拉</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>急救</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>丸子</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>青铜剑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>袖箭</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸药包</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>烹饪1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>烹饪1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>草药1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>草药1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>珠宝1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>机关1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>机关1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>村正</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>锻造4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>反曲弓</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>裁缝1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产规则</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.一个店铺最多容纳5个人进行生产</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.每个生产物品上显示生产所需要的技能数量，比如烹饪5，则意味着需要5个具有烹饪能力的成员进行烹饪。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.1 如果生产物品所需烹饪5、草药2，则意味着需要5个具有烹饪能力，2个草药能力的成员进行烹饪</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>制皮</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛角帽</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>裁缝1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>制皮1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛角帽</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>制皮</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>火腿</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复药</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>解毒药</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒药</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色在战斗或冲突中逃走的概率</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃脱能力</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.1 战斗中如果生命值为0则角色处于受重伤或死亡状态</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.行军规则</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defense = (37.72*(85*7.5))/(100-37.72)</t>
+  </si>
+  <si>
+    <t>Defense = (Armor*(CharacterLevel*7.5))/(100-Armor)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.2 战斗出手速度，根据出手速度决定出手频率，出手频率公式。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.1 在行军时，角色受重伤后需要特殊伤药回复（队员自动使用，使用后角色从重伤状态变为轻伤状态），</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">速度 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        1.2.1 我方速度 = 100， 敌方速度 = 30， 则我方出手频率为 每秒攻击次数 = power(2,速度/200）/2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.3 战斗表现为即时制，双方互相攻击一条直线上的目标，直到目标死亡为止 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        1.3.1 如果目标当前方向没有攻击目标，则目标攻击不在一条直线上的其他目标</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        1.3.2 角色站位按照 ： 前排——剑/刀/拳/骑手 ，中排——矛手/棍手/忍术， 后排——弩手/铳手/弓手的方式站位</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式 = power(2,速度/200）/2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        1.2.2 剩余生命 = 当前生命 - 受到伤害， 剩余生命为零时角色无法继续战斗</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        2.1.3 轻伤队员可以通过行军慢慢恢复生命（每天恢复5%生命）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.角色规则</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        2.1.2 重伤队员无法恢复生命处于濒死状态，濒死状态会持续若干天数，如果在时间内未及时治疗，则濒死成员永久死亡</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        2.1.1 若无伤药则无法回复依然保持重伤状态，重伤状态队员无法继续出战</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.2 如果队伍中所有人都处于重伤或者死亡状态，则该队伍停止行军，队伍就地解散，重伤队员立刻回到公会主城。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.1 角色战斗会提升对应的技能经验，例如使用剑术战斗则提升剑术经验，剑术等级会升级</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        3.2.1 每种技能的等级上限为10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        2.2.1 行军过程中遇到遭遇战，会弹出提示咨询玩家是否战斗或者逃跑，战斗可以直接跳过战斗动画，显示战斗结果</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.暗杀规则</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        4.1.2 如果处于暗杀阶段，则可以根据队员的能力选择暗杀选项，例如毒药、爆炸、驱虫等</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.独狼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>独狼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个人执行任务，全属性加成20%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.战斗奖励</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   6.1 角色在每次战斗胜利后都会获得一定战斗奖励，包括金钱、物品</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗类</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备类</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>配方类</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>绷带</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解毒剂</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>变声药剂</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>迷幻剂</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>河豚毒</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻药</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>草药1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>草药1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>草药1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>草药1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>草药2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>草药2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>迷魂水</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>草药3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>化尸水</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>草药1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>体力药水</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>草药1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>急救1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.生产物品需要技能数量同时也需要消耗金币，金币不足则无法生产</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.在店铺放置成员，成员条件满足则可以用于生产，玩家点击商品则开始生产，玩家可以选择生产数量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.生产物资可以用于携带</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>金创药</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>救心丸</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>防具</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸甲</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>饰品</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物配方</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备配方</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>药剂配方</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠宝配方</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>裁缝配方</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊角色</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源类</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>粮食</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁矿</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   6.2 角色在行军过程中会遇到特殊事件或特殊宝箱，则可以获得其中的物品</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   6.3 公会完成任务则会获得对应奖励</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       6.3.1 公会完成任务的额外内容则会获得额外奖励</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.进入大世界</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   7.1 角色组队后可以在大世界行走，玩家在大世界行走时无法选择行走路线，玩家会朝着目标地自动前行，每前进一格就会消耗粮食，成员的欢愉度也会下降</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   7.2 行军时的粮食为自动消耗，欢愉度可以选择扎营，扎营时选择选项：1.睡觉  2.饮酒  3.桑拿  4.唱歌，这些选项取决于玩家携带的物品和队员的特性技能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        7.2.1 扎营有时间CD，在CD中时无法选择扎营，扎营结束后会有概率触发随机事件</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        7.2.3 扎营后会有根据类型增加队员的欢愉度，但是也会有一定概率降低队员的欢愉度，根据扎营选择</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        7.2.2 扎营时每个选项只能选择一次，直接选择“睡觉”则立即结束本次扎营</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.战斗规则</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.2 角色初始都有默认武器。角色拥有战斗技能决定角色可以使用哪种武器，角色使用该武器战斗时才会增加该武器的等级</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.1 角色进入暗杀目标时，会通过菜单方式显示暗杀方案，暗杀成功时则目标死亡。如果暗杀失败会出现目标逃跑或者目标攻击事件</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        4.1.1 如果被强制进入目标攻击事件时，则进入遭遇战场景，进入遭遇战则需要强制攻击。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   5.1 只能一个人执行任务，在执行过程中所有属性加成20%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.好感</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   5.2 独狼在行走中声明恢复速度增加100%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.出征</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.1 队员彼此之间有好感值的隐藏属性，探索组队或者集体生产时好感值会影响对应队员的能力和工作效率</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.2 队员在行走过程中还会产生随机对话，队员彼此之间会有好感值设定</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.3 好感值会影响战斗中，队员彼此的属性变化。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.4 队员的个性和能力会影响彼此的好感取向，例如“女寡妇”能力就对男性的好感偏低，对女性的好感偏高</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  9.1 玩家选择了任务，点击执行会跳入到出征界面，出征界面需要玩家选择购买粮食和携带特殊物品</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  9.2 确认购买后选择进入大世界，在大世界里行走需要消耗粮食。如果粮食消耗为0，则队员会每次行走丧失5%的生命值和5%的欢愉值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       9.2.1 当队员的生命值降为0时，该队员处于无法行动状态（重伤）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       9.2.2 当队员的欢愉值降为0时，该队员处于高压状态，队员有可能拒绝行动或者叛逃</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.资源获得</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  10.1 金币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       10.1.1 获取：玩家角色完成任务则可以获得相应金币/玩家贩卖生产的物质会获取一定金币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       10.1.2 消耗：玩家角色在娱乐场所会消耗金币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       10.1.3 装备：玩家角色购买装备会消耗金币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       10.2.1 获取：玩家角色可以通过金币购买或者以物易物换取铁矿资源/玩家完成任务也可以获得铁矿</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       10.2.2 消耗：玩家角色在铁匠铺里铸造装备会消耗铁矿</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  10.2 铁矿</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  10.3 宝石</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       10.3.2 消耗：玩家角色在铁匠铺里铸造珠宝会消耗宝石</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  10.4 皮革</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       10.3.1 获取：玩家角色可以通过金币购买或者以物易物换取宝石资源/玩家完成任务或战斗也可以获得宝石</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       10.4.1 获取：玩家角色可以通过金币购买或者以物易物换取皮革资源/玩家完成任务或杀死动物也可以获得皮革</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       10.4.2 消耗：玩家角色在裁缝铺里缝制衣服消耗皮革</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2239,11 +2786,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2451,64 +3019,95 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2516,68 +3115,71 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3451,7 +4053,7 @@
       <c r="S23" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3459,10 +4061,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -3473,18 +4075,23 @@
     <col min="4" max="4" width="11.625" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.125" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="17"/>
+    <col min="7" max="13" width="9" style="17"/>
+    <col min="14" max="15" width="9.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B1" s="17" t="s">
         <v>364</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N1" s="52" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B2" s="23" t="s">
         <v>370</v>
       </c>
@@ -3513,10 +4120,16 @@
         <v>368</v>
       </c>
       <c r="L2" s="23" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+        <v>403</v>
+      </c>
+      <c r="N2" s="54" t="s">
+        <v>576</v>
+      </c>
+      <c r="O2" s="54" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B3" s="22" t="s">
         <v>14</v>
       </c>
@@ -3545,24 +4158,30 @@
         <v>378</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+        <v>404</v>
+      </c>
+      <c r="N3" s="55" t="s">
+        <v>574</v>
+      </c>
+      <c r="O3" s="55" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B5" s="17" t="s">
         <v>388</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="J5" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K5" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B6" s="23" t="s">
         <v>383</v>
       </c>
@@ -3581,17 +4200,20 @@
       <c r="H6" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="I6" s="54" t="s">
+        <v>578</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="L6" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="K6" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="M6" s="23" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N6" s="23" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B7" s="22" t="s">
         <v>379</v>
       </c>
@@ -3610,19 +4232,22 @@
       <c r="H7" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="I7" s="55" t="s">
+        <v>579</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="L7" s="22" t="s">
         <v>417</v>
       </c>
-      <c r="K7" s="22" t="s">
-        <v>418</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="36" t="s">
-        <v>410</v>
+      <c r="N7" s="22" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="46" t="s">
+        <v>409</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>37</v>
@@ -3642,8 +4267,8 @@
       <c r="M9" s="28"/>
       <c r="N9" s="29"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="36"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="46"/>
       <c r="B10" s="30" t="s">
         <v>36</v>
       </c>
@@ -3662,8 +4287,8 @@
       <c r="M10" s="31"/>
       <c r="N10" s="32"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="36"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="46"/>
       <c r="B11" s="30" t="s">
         <v>40</v>
       </c>
@@ -3682,10 +4307,10 @@
       <c r="M11" s="31"/>
       <c r="N11" s="32"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="36"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="46"/>
       <c r="B12" s="30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
@@ -3693,7 +4318,7 @@
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
       <c r="H12" s="31" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
@@ -3702,10 +4327,10 @@
       <c r="M12" s="31"/>
       <c r="N12" s="32"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="36"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="46"/>
       <c r="B13" s="33" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
@@ -3713,7 +4338,7 @@
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
       <c r="H13" s="34" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I13" s="34"/>
       <c r="J13" s="34"/>
@@ -3722,9 +4347,9 @@
       <c r="M13" s="34"/>
       <c r="N13" s="35"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="36" t="s">
-        <v>414</v>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="46" t="s">
+        <v>413</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>393</v>
@@ -3744,8 +4369,8 @@
       <c r="M15" s="28"/>
       <c r="N15" s="29"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="36"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="46"/>
       <c r="B16" s="30" t="s">
         <v>392</v>
       </c>
@@ -3764,8 +4389,8 @@
       <c r="M16" s="31"/>
       <c r="N16" s="32"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="36"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="46"/>
       <c r="B17" s="30" t="s">
         <v>391</v>
       </c>
@@ -3784,8 +4409,8 @@
       <c r="M17" s="31"/>
       <c r="N17" s="32"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="36"/>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" s="46"/>
       <c r="B18" s="33" t="s">
         <v>396</v>
       </c>
@@ -3804,11 +4429,11 @@
       <c r="M18" s="34"/>
       <c r="N18" s="35"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="36" t="s">
-        <v>415</v>
-      </c>
-      <c r="B20" s="27" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" s="56" t="s">
+        <v>414</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>398</v>
       </c>
       <c r="C20" s="28"/>
@@ -3826,125 +4451,712 @@
       <c r="M20" s="28"/>
       <c r="N20" s="29"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="36"/>
-      <c r="B21" s="33" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" s="57"/>
+      <c r="B21" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34" t="s">
-        <v>403</v>
-      </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="35"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="36" t="s">
-        <v>416</v>
-      </c>
-      <c r="B23" s="27" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="60" t="s">
+        <v>581</v>
+      </c>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="32"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" s="58"/>
+      <c r="B22" s="59" t="s">
+        <v>580</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="59" t="s">
+        <v>582</v>
+      </c>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="35"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" s="46" t="s">
+        <v>415</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="29"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" s="46"/>
+      <c r="B25" s="33" t="s">
         <v>420</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="29"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" s="36"/>
-      <c r="B24" s="33" t="s">
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34" t="s">
         <v>421</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="35"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="36" t="s">
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="35"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" s="46" t="s">
+        <v>455</v>
+      </c>
+      <c r="B27" s="27" t="s">
         <v>456</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28" t="s">
         <v>457</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28" t="s">
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="29"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" s="46"/>
+      <c r="B28" s="33" t="s">
         <v>458</v>
       </c>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="29"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" s="36"/>
-      <c r="B27" s="33" t="s">
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34" t="s">
         <v>459</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34" t="s">
-        <v>460</v>
-      </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="35"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="35"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O30" s="61" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O31" s="61" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="33" spans="16:18" x14ac:dyDescent="0.35">
+      <c r="P33" s="52" t="s">
+        <v>596</v>
+      </c>
+      <c r="R33" s="52"/>
+    </row>
+    <row r="34" spans="16:18" x14ac:dyDescent="0.35">
+      <c r="P34" s="52" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q34" s="52" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="35" spans="16:18" x14ac:dyDescent="0.35">
+      <c r="P35" s="17">
+        <v>200</v>
+      </c>
+      <c r="Q35" s="17">
+        <f>ROUND(POWER(2,P35/100)/2,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="16:18" x14ac:dyDescent="0.35">
+      <c r="P36" s="17">
+        <v>100</v>
+      </c>
+      <c r="Q36" s="17">
+        <f t="shared" ref="Q36:Q45" si="0">ROUND(POWER(2,P36/100)/2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="16:18" x14ac:dyDescent="0.35">
+      <c r="P37" s="17">
+        <v>90</v>
+      </c>
+      <c r="Q37" s="17">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="38" spans="16:18" x14ac:dyDescent="0.35">
+      <c r="P38" s="17">
+        <v>80</v>
+      </c>
+      <c r="Q38" s="17">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="39" spans="16:18" x14ac:dyDescent="0.35">
+      <c r="P39" s="17">
+        <v>70</v>
+      </c>
+      <c r="Q39" s="17">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="40" spans="16:18" x14ac:dyDescent="0.35">
+      <c r="P40" s="17">
+        <v>60</v>
+      </c>
+      <c r="Q40" s="17">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="41" spans="16:18" x14ac:dyDescent="0.35">
+      <c r="P41" s="17">
+        <v>50</v>
+      </c>
+      <c r="Q41" s="17">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="42" spans="16:18" x14ac:dyDescent="0.35">
+      <c r="P42" s="17">
+        <v>40</v>
+      </c>
+      <c r="Q42" s="17">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="43" spans="16:18" x14ac:dyDescent="0.35">
+      <c r="P43" s="17">
+        <v>30</v>
+      </c>
+      <c r="Q43" s="17">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="44" spans="16:18" x14ac:dyDescent="0.35">
+      <c r="P44" s="17">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="17">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="45" spans="16:18" x14ac:dyDescent="0.35">
+      <c r="P45" s="17">
+        <v>10</v>
+      </c>
+      <c r="Q45" s="17">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A27:A28"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L69" sqref="L69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="63"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="63" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="63" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="63" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="63" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="63" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="63" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="63" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="63" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="63" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="63" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="63" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="63" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B15" s="63" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B16" s="63" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="63" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="63" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="63" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="63" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="63" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="63" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="63" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="63" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="63" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="63" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="63" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="63" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="63" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="63" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="63" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="63" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="63" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="63" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="63" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="63" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="63" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B43" s="63" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="63" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="63" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="63" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="63" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="63" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="63" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B52" s="63" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="67" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="63" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="63" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="63" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="63" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B59" s="63" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B60" s="63" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B61" s="63" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B62" s="63" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B63" s="63" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B64" s="63" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B65" s="63" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B66" s="63" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B67" s="63" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B68" s="63" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B69" s="63" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B70" s="63" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B71" s="63" t="s">
+        <v>676</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="9" style="64"/>
+    <col min="6" max="6" width="11.25" style="64" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="64"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="65" t="s">
+        <v>634</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>613</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>614</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>615</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="66" t="s">
+        <v>633</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>616</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>622</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>626</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="66" t="s">
+        <v>635</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>617</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>623</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>627</v>
+      </c>
+      <c r="F4" s="66"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="66" t="s">
+        <v>636</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>618</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>624</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>628</v>
+      </c>
+      <c r="F5" s="66"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="66" t="s">
+        <v>637</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>619</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>625</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>629</v>
+      </c>
+      <c r="F6" s="66"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="66"/>
+      <c r="C7" s="66" t="s">
+        <v>620</v>
+      </c>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66" t="s">
+        <v>630</v>
+      </c>
+      <c r="F7" s="66"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="66"/>
+      <c r="C8" s="66" t="s">
+        <v>621</v>
+      </c>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L15"/>
   <sheetViews>
@@ -4006,7 +5218,7 @@
         <v>98</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>91</v>
@@ -4242,18 +5454,18 @@
       <c r="L15" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O45"/>
+  <dimension ref="B2:Q45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -4263,33 +5475,33 @@
     <col min="3" max="3" width="19.5" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="17"/>
     <col min="6" max="6" width="22.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9" style="17"/>
-    <col min="10" max="11" width="20.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.875" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.25" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.875" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="17"/>
+    <col min="7" max="11" width="9" style="17"/>
+    <col min="12" max="13" width="20.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B2" s="37" t="s">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B2" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="16"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="J2" s="17" t="s">
+      <c r="F2" s="48"/>
+      <c r="L2" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="M2" s="17" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B3" s="18" t="s">
         <v>114</v>
       </c>
@@ -4303,26 +5515,30 @@
       <c r="F3" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="H3" s="53" t="s">
+        <v>568</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="L3" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="M3" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="N3" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="O3" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="P3" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="Q3" s="17" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B4" s="19" t="s">
         <v>263</v>
       </c>
@@ -4335,26 +5551,32 @@
       <c r="F4" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="H4" s="52" t="s">
+        <v>569</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>570</v>
+      </c>
+      <c r="L4" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="M4" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="N4" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="O4" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="P4" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="Q4" s="17" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B5" s="19" t="s">
         <v>265</v>
       </c>
@@ -4367,23 +5589,29 @@
       <c r="F5" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="H5" s="52" t="s">
+        <v>571</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>570</v>
+      </c>
+      <c r="L5" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="M5" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="N5" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="P5" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="Q5" s="17" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B6" s="19" t="s">
         <v>266</v>
       </c>
@@ -4396,23 +5624,26 @@
       <c r="F6" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="H6" s="52" t="s">
+        <v>572</v>
+      </c>
+      <c r="L6" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="M6" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="N6" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="O6" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="P6" s="17" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="33" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:17" ht="33" x14ac:dyDescent="0.35">
       <c r="B7" s="19" t="s">
         <v>269</v>
       </c>
@@ -4425,23 +5656,23 @@
       <c r="F7" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="L7" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="M7" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="N7" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="O7" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="Q7" s="17" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B8" s="19" t="s">
         <v>272</v>
       </c>
@@ -4454,23 +5685,23 @@
       <c r="F8" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="L8" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="M8" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="N8" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="N8" s="17" t="s">
+      <c r="P8" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="O8" s="17" t="s">
+      <c r="Q8" s="17" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B9" s="19" t="s">
         <v>275</v>
       </c>
@@ -4483,26 +5714,26 @@
       <c r="F9" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="L9" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="M9" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="N9" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="O9" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="N9" s="17" t="s">
+      <c r="P9" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="O9" s="17" t="s">
+      <c r="Q9" s="17" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B10" s="19" t="s">
         <v>274</v>
       </c>
@@ -4515,20 +5746,20 @@
       <c r="F10" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="L10" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="M10" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="N10" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="P10" s="17" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="33" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:17" ht="33" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
         <v>277</v>
       </c>
@@ -4541,23 +5772,23 @@
       <c r="F11" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="L11" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="M11" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="N11" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="O11" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="P11" s="17" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B12" s="19" t="s">
         <v>279</v>
       </c>
@@ -4570,23 +5801,23 @@
       <c r="F12" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="L12" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="M12" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="N12" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="O12" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="N12" s="17" t="s">
+      <c r="P12" s="17" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B13" s="19" t="s">
         <v>281</v>
       </c>
@@ -4599,20 +5830,20 @@
       <c r="F13" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="L13" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="M13" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="N13" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="N13" s="17" t="s">
+      <c r="P13" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="33" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:17" ht="33" x14ac:dyDescent="0.35">
       <c r="B14" s="19" t="s">
         <v>323</v>
       </c>
@@ -4625,23 +5856,23 @@
       <c r="F14" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="L14" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="M14" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="N14" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="M14" s="17" t="s">
+      <c r="O14" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="N14" s="17" t="s">
+      <c r="P14" s="17" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="33" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:17" ht="33" x14ac:dyDescent="0.35">
       <c r="B15" s="19" t="s">
         <v>283</v>
       </c>
@@ -4654,23 +5885,23 @@
       <c r="F15" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="L15" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="M15" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="N15" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="M15" s="17" t="s">
+      <c r="O15" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="N15" s="17" t="s">
+      <c r="P15" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="33" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:17" ht="33" x14ac:dyDescent="0.35">
       <c r="B16" s="19" t="s">
         <v>284</v>
       </c>
@@ -4683,20 +5914,20 @@
       <c r="F16" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="L16" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="M16" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="N16" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="N16" s="17" t="s">
+      <c r="P16" s="17" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="33" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:16" ht="33" x14ac:dyDescent="0.35">
       <c r="B17" s="19" t="s">
         <v>285</v>
       </c>
@@ -4709,23 +5940,23 @@
       <c r="F17" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="L17" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="M17" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="L17" s="17" t="s">
+      <c r="N17" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="M17" s="17" t="s">
+      <c r="O17" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="N17" s="17" t="s">
+      <c r="P17" s="17" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="33" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:16" ht="33" x14ac:dyDescent="0.35">
       <c r="B18" s="19" t="s">
         <v>286</v>
       </c>
@@ -4738,23 +5969,23 @@
       <c r="F18" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="L18" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="M18" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="N18" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="M18" s="17" t="s">
+      <c r="O18" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="N18" s="17" t="s">
+      <c r="P18" s="17" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="33" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:16" ht="33" x14ac:dyDescent="0.35">
       <c r="B19" s="19" t="s">
         <v>287</v>
       </c>
@@ -4767,20 +5998,20 @@
       <c r="F19" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="L19" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="M19" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="N19" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="N19" s="17" t="s">
+      <c r="P19" s="17" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20" s="19" t="s">
         <v>288</v>
       </c>
@@ -4793,20 +6024,20 @@
       <c r="F20" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="L20" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="M20" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="L20" s="17" t="s">
+      <c r="N20" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="N20" s="17" t="s">
+      <c r="P20" s="17" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="33" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:16" ht="33" x14ac:dyDescent="0.35">
       <c r="B21" s="19" t="s">
         <v>309</v>
       </c>
@@ -4819,20 +6050,20 @@
       <c r="F21" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="L21" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="M21" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="L21" s="17" t="s">
+      <c r="N21" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="N21" s="17" t="s">
+      <c r="P21" s="17" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="33" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:16" ht="33" x14ac:dyDescent="0.35">
       <c r="B22" s="19" t="s">
         <v>310</v>
       </c>
@@ -4845,20 +6076,20 @@
       <c r="F22" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="L22" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="M22" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="L22" s="17" t="s">
+      <c r="N22" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="N22" s="17" t="s">
+      <c r="P22" s="17" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="33" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:16" ht="33" x14ac:dyDescent="0.35">
       <c r="B23" s="19" t="s">
         <v>314</v>
       </c>
@@ -4871,20 +6102,20 @@
       <c r="F23" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="J23" s="17" t="s">
+      <c r="L23" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="K23" s="17" t="s">
+      <c r="M23" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="L23" s="17" t="s">
+      <c r="N23" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="N23" s="17" t="s">
+      <c r="P23" s="17" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="33" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:16" ht="33" x14ac:dyDescent="0.35">
       <c r="B24" s="19" t="s">
         <v>315</v>
       </c>
@@ -4897,20 +6128,20 @@
       <c r="F24" s="21" t="s">
         <v>345</v>
       </c>
-      <c r="J24" s="17" t="s">
+      <c r="L24" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="K24" s="17" t="s">
+      <c r="M24" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="L24" s="17" t="s">
+      <c r="N24" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="N24" s="17" t="s">
+      <c r="P24" s="17" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B25" s="19" t="s">
         <v>339</v>
       </c>
@@ -4923,14 +6154,14 @@
       <c r="F25" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="J25" s="17" t="s">
+      <c r="L25" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="K25" s="17" t="s">
+      <c r="M25" s="17" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B26" s="19" t="s">
         <v>341</v>
       </c>
@@ -4943,14 +6174,14 @@
       <c r="F26" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="L26" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="K26" s="17" t="s">
+      <c r="M26" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B27" s="19" t="s">
         <v>347</v>
       </c>
@@ -4963,165 +6194,169 @@
       <c r="F27" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="J27" s="17" t="s">
+      <c r="L27" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="K27" s="17" t="s">
+      <c r="M27" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B28" s="62" t="s">
+        <v>609</v>
+      </c>
+      <c r="C28" s="62" t="s">
+        <v>610</v>
+      </c>
       <c r="E28" s="19" t="s">
         <v>362</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="J28" s="17" t="s">
+      <c r="L28" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="K28" s="17" t="s">
+      <c r="M28" s="17" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
       <c r="E29" s="19" t="s">
         <v>363</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="J29" s="17" t="s">
+      <c r="L29" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="K29" s="17" t="s">
+      <c r="M29" s="17" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="J30" s="17" t="s">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="L30" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="K30" s="17" t="s">
+      <c r="M30" s="17" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="J31" s="17" t="s">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="L31" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="K31" s="17" t="s">
+      <c r="M31" s="17" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="J32" s="17" t="s">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="L32" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="K32" s="17" t="s">
+      <c r="M32" s="17" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J33" s="17" t="s">
+    <row r="33" spans="12:13" x14ac:dyDescent="0.35">
+      <c r="L33" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="K33" s="17" t="s">
+      <c r="M33" s="17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J34" s="17" t="s">
+    <row r="34" spans="12:13" x14ac:dyDescent="0.35">
+      <c r="L34" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="K34" s="17" t="s">
+      <c r="M34" s="17" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J35" s="17" t="s">
+    <row r="35" spans="12:13" x14ac:dyDescent="0.35">
+      <c r="L35" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="K35" s="17" t="s">
+      <c r="M35" s="17" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J36" s="17" t="s">
+    <row r="36" spans="12:13" x14ac:dyDescent="0.35">
+      <c r="L36" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="K36" s="17" t="s">
+      <c r="M36" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J37" s="17" t="s">
+    <row r="37" spans="12:13" x14ac:dyDescent="0.35">
+      <c r="L37" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="K37" s="17" t="s">
+      <c r="M37" s="17" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J38" s="17" t="s">
+    <row r="38" spans="12:13" x14ac:dyDescent="0.35">
+      <c r="L38" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="K38" s="17" t="s">
+      <c r="M38" s="17" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J39" s="17" t="s">
+    <row r="39" spans="12:13" x14ac:dyDescent="0.35">
+      <c r="L39" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="K39" s="17" t="s">
+      <c r="M39" s="17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J40" s="17" t="s">
+    <row r="40" spans="12:13" x14ac:dyDescent="0.35">
+      <c r="L40" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="K40" s="17" t="s">
+      <c r="M40" s="17" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J41" s="17" t="s">
+    <row r="41" spans="12:13" x14ac:dyDescent="0.35">
+      <c r="L41" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="K41" s="17" t="s">
+      <c r="M41" s="17" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="42" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J42" s="17" t="s">
+    <row r="42" spans="12:13" x14ac:dyDescent="0.35">
+      <c r="L42" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="K42" s="17" t="s">
+      <c r="M42" s="17" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="43" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J43" s="17" t="s">
+    <row r="43" spans="12:13" x14ac:dyDescent="0.35">
+      <c r="L43" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="K43" s="17" t="s">
+      <c r="M43" s="17" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J44" s="17" t="s">
+    <row r="44" spans="12:13" x14ac:dyDescent="0.35">
+      <c r="L44" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="K44" s="17" t="s">
+      <c r="M44" s="17" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J45" s="17" t="s">
+    <row r="45" spans="12:13" x14ac:dyDescent="0.35">
+      <c r="L45" s="17" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5130,17 +6365,17 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G35"/>
+  <dimension ref="B2:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B11"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -5156,7 +6391,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>7</v>
@@ -5164,13 +6399,13 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>34</v>
@@ -5178,83 +6413,83 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C4" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>438</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>437</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C7" s="25" t="s">
+        <v>445</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>446</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>447</v>
-      </c>
       <c r="E7" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -5262,46 +6497,46 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="39" t="s">
-        <v>449</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>466</v>
-      </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
+      <c r="B13" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>465</v>
+      </c>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="39" t="s">
+        <v>461</v>
+      </c>
+      <c r="E14" s="39" t="s">
         <v>462</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="F14" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="G14" s="39" t="s">
         <v>464</v>
-      </c>
-      <c r="G14" s="42" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="23" t="s">
-        <v>450</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>469</v>
+        <v>449</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>468</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>370</v>
@@ -5309,16 +6544,16 @@
       <c r="F15" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="G15" s="46" t="s">
-        <v>472</v>
+      <c r="G15" s="40" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="23" t="s">
-        <v>451</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>468</v>
+        <v>450</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>467</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>371</v>
@@ -5326,13 +6561,13 @@
       <c r="F16" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="G16" s="23" t="s">
-        <v>367</v>
+      <c r="G16" s="40" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>368</v>
@@ -5343,8 +6578,8 @@
       <c r="F17" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="G17" s="46" t="s">
-        <v>473</v>
+      <c r="G17" s="23" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
@@ -5352,7 +6587,7 @@
         <v>380</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>373</v>
@@ -5360,14 +6595,14 @@
       <c r="F18" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="G18" s="46" t="s">
-        <v>474</v>
+      <c r="G18" s="23" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="26"/>
-      <c r="D19" s="46" t="s">
-        <v>470</v>
+      <c r="D19" s="40" t="s">
+        <v>469</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>374</v>
@@ -5375,173 +6610,124 @@
       <c r="F19" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="G19" s="23" t="s">
-        <v>370</v>
+      <c r="G19" s="54" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="D20" s="46" t="s">
-        <v>471</v>
+      <c r="D20" s="40" t="s">
+        <v>470</v>
       </c>
       <c r="F20" s="23" t="s">
         <v>400</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="F21" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>372</v>
-      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="46" t="s">
-        <v>467</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>373</v>
+      <c r="B22" s="40" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="G23" s="23" t="s">
-        <v>374</v>
-      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="23" t="s">
-        <v>404</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="G25" s="23" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="G26" s="23" t="s">
-        <v>389</v>
-      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="G27" s="23" t="s">
-        <v>382</v>
-      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="G28" s="23" t="s">
-        <v>397</v>
-      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="G29" s="23" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="G30" s="23" t="s">
-        <v>412</v>
-      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="G31" s="23" t="s">
-        <v>413</v>
-      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="40" t="s">
         <v>400</v>
       </c>
-      <c r="G32" s="46" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="G33" s="46" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B34" s="23" t="s">
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="23" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="23" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B35" s="23" t="s">
-        <v>413</v>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="54" t="s">
+        <v>583</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D13:G13"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V31"/>
+  <dimension ref="A2:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9" style="39"/>
+    <col min="1" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
-        <v>496</v>
-      </c>
-      <c r="E2" s="39" t="s">
+      <c r="A2" s="36" t="s">
+        <v>492</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>491</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>493</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="O2" s="36" t="s">
         <v>495</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>497</v>
-      </c>
-      <c r="M2" s="39" t="s">
-        <v>498</v>
-      </c>
-      <c r="O2" s="39" t="s">
-        <v>499</v>
       </c>
       <c r="R2" s="12" t="s">
         <v>49</v>
@@ -5556,42 +6742,42 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="43" t="s">
+        <v>471</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>496</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>497</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="43" t="s">
+        <v>472</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>496</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>497</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="43" t="s">
+        <v>473</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>496</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>497</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="M3" s="43" t="s">
+        <v>474</v>
+      </c>
+      <c r="N3" s="37"/>
+      <c r="O3" s="43" t="s">
         <v>475</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>500</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>501</v>
-      </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="49" t="s">
-        <v>476</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>500</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>501</v>
-      </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="49" t="s">
-        <v>477</v>
-      </c>
-      <c r="J3" s="49" t="s">
-        <v>500</v>
-      </c>
-      <c r="K3" s="49" t="s">
-        <v>501</v>
-      </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="49" t="s">
-        <v>478</v>
-      </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="49" t="s">
-        <v>479</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>56</v>
@@ -5606,35 +6792,35 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A4" s="41" t="s">
-        <v>481</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>502</v>
-      </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41" t="s">
-        <v>423</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>508</v>
-      </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="50" t="s">
-        <v>547</v>
-      </c>
-      <c r="J4" s="50" t="s">
-        <v>553</v>
-      </c>
-      <c r="K4" s="50" t="s">
-        <v>566</v>
-      </c>
-      <c r="L4" s="40"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="50"/>
+      <c r="A4" s="38" t="s">
+        <v>477</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>498</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="44" t="s">
+        <v>543</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>549</v>
+      </c>
+      <c r="K4" s="44" t="s">
+        <v>562</v>
+      </c>
+      <c r="L4" s="37"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="44"/>
       <c r="R4" s="1" t="s">
         <v>57</v>
       </c>
@@ -5648,33 +6834,33 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A5" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>502</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="41" t="s">
-        <v>424</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>509</v>
-      </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="50" t="s">
-        <v>548</v>
-      </c>
-      <c r="J5" s="50" t="s">
-        <v>554</v>
-      </c>
-      <c r="K5" s="50"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="50"/>
+      <c r="A5" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>498</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>505</v>
+      </c>
+      <c r="G5" s="38"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="44" t="s">
+        <v>544</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>550</v>
+      </c>
+      <c r="K5" s="44"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="44"/>
       <c r="R5" s="1" t="s">
         <v>58</v>
       </c>
@@ -5688,33 +6874,33 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A6" s="41" t="s">
-        <v>482</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>502</v>
-      </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41" t="s">
-        <v>425</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>508</v>
-      </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="50" t="s">
-        <v>549</v>
-      </c>
-      <c r="J6" s="50" t="s">
-        <v>555</v>
-      </c>
-      <c r="K6" s="50"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="50"/>
+      <c r="A6" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>498</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="G6" s="38"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="44" t="s">
+        <v>545</v>
+      </c>
+      <c r="J6" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="K6" s="44"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="44"/>
       <c r="R6" s="1" t="s">
         <v>59</v>
       </c>
@@ -5728,33 +6914,33 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A7" s="41" t="s">
-        <v>483</v>
-      </c>
-      <c r="B7" s="41" t="s">
+      <c r="A7" s="38" t="s">
+        <v>479</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>500</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="F7" s="38" t="s">
         <v>504</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41" t="s">
-        <v>426</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>508</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="50" t="s">
-        <v>550</v>
-      </c>
-      <c r="J7" s="50" t="s">
-        <v>556</v>
-      </c>
-      <c r="K7" s="50"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="50"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="44" t="s">
+        <v>546</v>
+      </c>
+      <c r="J7" s="44" t="s">
+        <v>552</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="44"/>
       <c r="R7" s="1" t="s">
         <v>60</v>
       </c>
@@ -5768,35 +6954,35 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A8" s="41" t="s">
-        <v>484</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>503</v>
-      </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41" t="s">
-        <v>427</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>510</v>
-      </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="50" t="s">
-        <v>551</v>
-      </c>
-      <c r="J8" s="50" t="s">
-        <v>557</v>
-      </c>
-      <c r="K8" s="50" t="s">
-        <v>559</v>
-      </c>
-      <c r="L8" s="40"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="50"/>
+      <c r="A8" s="38" t="s">
+        <v>480</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>499</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>506</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="44" t="s">
+        <v>547</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>553</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>555</v>
+      </c>
+      <c r="L8" s="37"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="44"/>
       <c r="R8" s="1" t="s">
         <v>61</v>
       </c>
@@ -5810,33 +6996,33 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A9" s="41" t="s">
-        <v>488</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>505</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41" t="s">
-        <v>428</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>511</v>
-      </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="50" t="s">
-        <v>552</v>
-      </c>
-      <c r="J9" s="50" t="s">
-        <v>558</v>
-      </c>
-      <c r="K9" s="50"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="50"/>
+      <c r="A9" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>507</v>
+      </c>
+      <c r="G9" s="38"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="44" t="s">
+        <v>548</v>
+      </c>
+      <c r="J9" s="44" t="s">
+        <v>554</v>
+      </c>
+      <c r="K9" s="44"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="44"/>
       <c r="R9" s="1" t="s">
         <v>75</v>
       </c>
@@ -5850,33 +7036,33 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A10" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>506</v>
-      </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41" t="s">
-        <v>429</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>512</v>
-      </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="50" t="s">
-        <v>560</v>
-      </c>
-      <c r="J10" s="50" t="s">
-        <v>561</v>
-      </c>
-      <c r="K10" s="50"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="50"/>
+      <c r="A10" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>502</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>508</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="44" t="s">
+        <v>556</v>
+      </c>
+      <c r="J10" s="44" t="s">
+        <v>557</v>
+      </c>
+      <c r="K10" s="44"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="44"/>
       <c r="R10" s="1" t="s">
         <v>77</v>
       </c>
@@ -5890,35 +7076,35 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A11" s="41" t="s">
-        <v>490</v>
-      </c>
-      <c r="B11" s="41" t="s">
+      <c r="A11" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>502</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38" t="s">
+        <v>430</v>
+      </c>
+      <c r="F11" s="38" t="s">
         <v>506</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41" t="s">
-        <v>431</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>510</v>
-      </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="50" t="s">
-        <v>562</v>
-      </c>
-      <c r="J11" s="50" t="s">
-        <v>563</v>
-      </c>
-      <c r="K11" s="50"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="50"/>
-      <c r="R11" s="41" t="s">
-        <v>519</v>
+      <c r="G11" s="38"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="44" t="s">
+        <v>558</v>
+      </c>
+      <c r="J11" s="44" t="s">
+        <v>559</v>
+      </c>
+      <c r="K11" s="44"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="44"/>
+      <c r="R11" s="38" t="s">
+        <v>515</v>
       </c>
       <c r="S11" s="11"/>
       <c r="T11" s="14" t="s">
@@ -5930,33 +7116,33 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A12" s="47" t="s">
-        <v>491</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>507</v>
-      </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41" t="s">
-        <v>430</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>513</v>
-      </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="50" t="s">
-        <v>564</v>
-      </c>
-      <c r="J12" s="50" t="s">
-        <v>565</v>
-      </c>
-      <c r="K12" s="50"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="50"/>
+      <c r="A12" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>503</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>509</v>
+      </c>
+      <c r="G12" s="38"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="44" t="s">
+        <v>560</v>
+      </c>
+      <c r="J12" s="44" t="s">
+        <v>561</v>
+      </c>
+      <c r="K12" s="44"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="44"/>
       <c r="R12" s="14" t="s">
         <v>109</v>
       </c>
@@ -5970,347 +7156,357 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A13" s="50" t="s">
-        <v>492</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>507</v>
-      </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="48" t="s">
-        <v>485</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>514</v>
-      </c>
-      <c r="G13" s="48"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="50"/>
+      <c r="A13" s="44" t="s">
+        <v>488</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>503</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="42" t="s">
+        <v>481</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>510</v>
+      </c>
+      <c r="G13" s="42"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="44"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A14" s="50" t="s">
-        <v>493</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>507</v>
-      </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="48" t="s">
-        <v>486</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>515</v>
-      </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="50"/>
+      <c r="A14" s="44" t="s">
+        <v>489</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>503</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="42" t="s">
+        <v>482</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>511</v>
+      </c>
+      <c r="G14" s="42"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="44"/>
       <c r="R14" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A15" s="50" t="s">
-        <v>494</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>507</v>
-      </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="48" t="s">
-        <v>487</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>514</v>
-      </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="50"/>
+      <c r="A15" s="44" t="s">
+        <v>490</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>503</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="42" t="s">
+        <v>483</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>510</v>
+      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="44"/>
       <c r="R15" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
       <c r="R16" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="44" t="s">
+        <v>516</v>
+      </c>
+      <c r="B17" s="44" t="s">
         <v>520</v>
       </c>
-      <c r="B17" s="50" t="s">
-        <v>524</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>526</v>
-      </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="50" t="s">
-        <v>521</v>
-      </c>
-      <c r="F17" s="50" t="s">
-        <v>508</v>
-      </c>
-      <c r="G17" s="50" t="s">
-        <v>529</v>
-      </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
+      <c r="C17" s="44" t="s">
+        <v>522</v>
+      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="44" t="s">
+        <v>517</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>504</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>525</v>
+      </c>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
       <c r="R17" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" s="50" t="s">
-        <v>516</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>525</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>527</v>
-      </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="50" t="s">
-        <v>522</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>509</v>
-      </c>
-      <c r="G18" s="50" t="s">
-        <v>530</v>
-      </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
+      <c r="A18" s="44" t="s">
+        <v>512</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>521</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>523</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="44" t="s">
+        <v>518</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>505</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>526</v>
+      </c>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
       <c r="R18" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" s="50" t="s">
-        <v>517</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>502</v>
-      </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="50" t="s">
-        <v>523</v>
-      </c>
-      <c r="F19" s="50" t="s">
-        <v>508</v>
-      </c>
-      <c r="G19" s="50" t="s">
-        <v>531</v>
-      </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
+      <c r="A19" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>498</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>504</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>527</v>
+      </c>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
       <c r="R19" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" s="50" t="s">
-        <v>518</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>502</v>
-      </c>
-      <c r="C20" s="50" t="s">
+      <c r="A20" s="44" t="s">
+        <v>514</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>498</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>524</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="44" t="s">
         <v>528</v>
       </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="50" t="s">
-        <v>532</v>
-      </c>
-      <c r="F20" s="50" t="s">
-        <v>533</v>
-      </c>
-      <c r="G20" s="50"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
+      <c r="F20" s="44" t="s">
+        <v>529</v>
+      </c>
+      <c r="G20" s="44"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
       <c r="R20" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A21" s="50" t="s">
-        <v>546</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>524</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>540</v>
-      </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="50" t="s">
-        <v>534</v>
-      </c>
-      <c r="F21" s="50" t="s">
-        <v>545</v>
-      </c>
-      <c r="G21" s="50" t="s">
-        <v>535</v>
-      </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
+      <c r="A21" s="44" t="s">
+        <v>542</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>520</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>536</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="44" t="s">
+        <v>530</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>541</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>531</v>
+      </c>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
       <c r="R21" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="50" t="s">
-        <v>541</v>
-      </c>
-      <c r="F22" s="50" t="s">
-        <v>543</v>
-      </c>
-      <c r="G22" s="50"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="44" t="s">
+        <v>537</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>539</v>
+      </c>
+      <c r="G22" s="44"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
       <c r="R22" s="14" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="50" t="s">
-        <v>544</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>542</v>
-      </c>
-      <c r="G23" s="50"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="44" t="s">
+        <v>540</v>
+      </c>
+      <c r="F23" s="44" t="s">
+        <v>538</v>
+      </c>
+      <c r="G23" s="44"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
       <c r="R23" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A25" s="39" t="s">
-        <v>536</v>
+      <c r="A25" s="36" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A26" s="39" t="s">
-        <v>537</v>
+      <c r="A26" s="36" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A27" s="51" t="s">
-        <v>538</v>
+      <c r="A27" s="45" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A28" s="51" t="s">
-        <v>539</v>
+      <c r="A28" s="45" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="45" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A30" s="36" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A31" s="45" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="52" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="52" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A30" s="39" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A31" s="51" t="s">
-        <v>569</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/config/shadowGuild.xlsx
+++ b/config/shadowGuild.xlsx
@@ -21,14 +21,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="713">
   <si>
     <t>id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -44,19 +44,19 @@
       </rPr>
       <t>irtue</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>eccentricity</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>weapon</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>head</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -72,451 +72,451 @@
       </rPr>
       <t>hest</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>accessory</t>
   </si>
   <si>
     <t>combat</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>production</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>assassination</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>sociality</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>strength</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>agility</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>constitution</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>intelligence</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>荆轲</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>角色姓名：角色姓名分为真实人名和随机名称，随机名字由姓和名两个部分组成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>生产能力：在生产研究中的能力，该能力用于生产和研究的修正</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>能力：所有能力的上限值为10，最低值为0，一个角色最多拥有一种类型的3种能力</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>暗杀能力：在暗杀方面的能力，该能力用于暗杀的修正</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>社交能力：在社交方面的能力，该能力用于社交的修正</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>烹饪5
 铁匠7</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>剑术5
 刀术2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>毒药6
 爆炸3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>喝酒7
 跳舞5</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>战斗能力：使用某种战斗手段的能力，该能力用于修正伤害值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>美德：角色的优良品行，品行可以影响角色的一些特殊选择</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>怪癖：角色的不良品行，怪癖可以影响角色的一些特殊选择</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>坚毅</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>好色
 贪吃</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>匕首</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>铁盔</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>皮甲</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>钻戒</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>装备：分为武器、头、胸、挂件4大部分，可以用于修正角色能力</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>速度 = 敏捷 × 20 × （ 1 + 乘法修正值） + 加法修正值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>生命 = 体质 × 25 × （ 1 + 乘法修正值） + 加法修正值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>战斗中可以承受击打的能力，生命力为0则失去战斗能力，可能死亡、重伤、失去知觉</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>战斗中出手的速度，速度快的单位可以连续出手</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">伤害 = 力量 × 8 × （ 1 + 乘法修正值） + 加法修正值  </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>战斗中实际造成的伤害</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>研究能力，加快研究速度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>在与NPC交互时天生吸引人的能力，魅力高的角色可以经常从事间谍活动</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>charm</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>charm</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>角色属性：角色属性上限值为10，属性的影响，constitution生命值寿命，agility出手速度，strength攻击伤害，intelligence影响研发效果，charm影响对人的吸引力</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>战斗能力</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>能力介绍</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>生产能力</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>暗杀能力</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>社交能力</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>剑术</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>刀术</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>拳术</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>弓术</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>制皮</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>锻造</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>草药</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>裁缝</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>机关</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>烹饪</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>可以使用剑武器</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>可以使用刀武器</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>可以使用拳套武器</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>弩术</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>可以使用弓武器</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>可以使用弩武器</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>可以使用火枪武器</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>锻造武器</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>制造药水</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>制造食物</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>制造特殊武器</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>制造衣服</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>制造皮具</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>采矿</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>采集矿藏</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>捕鱼</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>种植</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>种植粮食</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>捕捉鱼</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>矛术</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>可以使用长矛</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>马术</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>可以使用马匹</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>易容</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>毒药</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>催眠</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>茶道</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>赌博</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>插花</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>品酒</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>舞蹈</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>吟诗</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>斗犬</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>跑马</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>迷烟</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>毒刃</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>筒针</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>蹴鞠</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>炸弹</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>铳术</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>忍术</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>可以使用特殊忍者武器</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>棍术</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>可以使用棍棒</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>辩论</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>驭蛇</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>驱虫</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>珠宝</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>制造珠宝</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>远狙</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>美德</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>怪癖</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>beast hater</t>
@@ -952,1236 +952,1236 @@
   </si>
   <si>
     <t>美德</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>怪癖</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>动物杀手</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>clotter</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>步行者</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>健身</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>10%生命</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>大世界移动10%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>条件反射</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>10%速度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>10%用刀伤害</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>快刀手</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>10%用剑伤害</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>神箭手</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>剑豪</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>10%用弓伤害</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>弩手</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>10%用弩伤害</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>牧马人</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>10%骑马伤害</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>忍者大师</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>10%忍术伤害</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>黑寡妇</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>交际花</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>直男癌</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>男闺蜜</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>外交官</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>隐匿者</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>肥胖者</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>厌食症</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>减少体力恢复速度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>大世界移动-10%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>对动物有10%伤害</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>畏犬者</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>受到动物伤害10%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>自闭症</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>自大狂</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>和人交往减少10%舒适度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>敛财者</t>
   </si>
   <si>
     <t>小气鬼</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>会侵吞别人的资产</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>很少轻易花钱购买道具</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>易怒者</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>逃脱概率+10%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>无法进入赌场</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>酒鬼</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>无法进入冥想室</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>性变态</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>厨神</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>最强大脑</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>病痨</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>老千</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>虐待狂</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>赏金杀手</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>杀人狂</t>
   </si>
   <si>
     <t>残疾</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>生命值-10%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>速度-10%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>胆小鬼</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>自虐</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>近视眼</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>无法使用弓箭</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>神枪手</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>10%用铳伤害</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>黑暗料理</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>烹饪效果-20%
 概率烹制出黑暗料理</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>赌鬼</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>和人交谈减少20%说服力
 智力加5%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>和人交谈成功率-20%
 战斗伤害+5%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>战斗时提高10%伤害
 魅力-10%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>暗杀时成功率提高10%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>研究效果20%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>烹饪效果20%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>对男性额外20%伤害
 和男性相处-10%吸引</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>对女性额外20%伤害
 和女性相处-10%吸引</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>对女性有额外20%吸引
 对女性减少10%伤害</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>虔诚者</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>和人交谈增加20%说服力
 战斗减少10%伤害</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>艺伎</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>对男性有额外20%吸引
 对男性减少10%伤害</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>茶艺师</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>舞蹈能力+10%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>茶艺能力+10%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>拳击手</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>拳术伤害提高20%
 其他伤害减少-10%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>无法使用暗杀手段
 伤害提高10%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>骑手</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>马术能力+10%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>生命恢复提高10%
 战斗时减少10%伤害</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>生命恢复-10%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>只喜欢赌场
 赌博增加20%欢愉</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>只喜欢冥想室
 冥想增加20%欢愉</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>只喜欢喝酒
 喝酒增加20%欢愉</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>领袖</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>作为队长时</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>女权主义</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>不会与男性组队</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>男权主义</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>不会与女性组队</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>与男性组队时伤害+10%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>与女性组队时伤害+10%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>男同主义</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>女同主义</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>一级属性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>生命值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>速度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>伤害</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>暴击率</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>战斗属性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>体质</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>敏捷</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>力量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>智力</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>魅力</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>hp</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>speed</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>damage</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>crit</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>reasearch</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>魅力</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>charm</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>魅力值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>研究值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>生产值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>product</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>movement</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>世界属性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>能力属性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>暗杀值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>assassination</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>生产值 = （ 体质 × 5 + 智力 × 5 ）× （ 1 + 乘法修正值 ） + 加法修正值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">魅力值 = 颜值 × 10 × （ 1 + 乘法修正值） + 加法修正值  </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">研究值 = 智力 × 10 × （ 1 + 乘法修正值） + 加法修正值  </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>生产效率的属性，数值越大生产效率越高</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>暗杀能力的属性，数值越大暗杀成功率越高</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>暗杀值 = （ 敏捷 × 5 + 智力 × 5 ）× （ 1 + 乘法修正值 ） + 加法修正值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>移动力</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>移动力 = （ 体质 × 5 + 敏捷 × 5 )  × （ 1 + 乘法修正值 ） + 加法修正值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>大世界地图的移动能力，数值越大移动越快</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>回复力</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>restoration</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">回复力 = 体质 × 10 × （ 1 + 乘法修正值 ） + 加法修正值       </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>格挡率</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>block</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>战斗中造成致命一击的概率，致命一击将造成1.5倍伤害</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>暴击率 = （ 敏捷 × 10 + 力量 × 5） × （ 1 + 乘法修正值 ） + 加法修正值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">格挡率 = （ 体质 × 10 + 力量 × 5） × （ 1 + 乘法修正值 ） + 加法修正值 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>战斗中减少伤害的概率，抵消50%的伤害</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>战斗公式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>交互属性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>吸引力</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>说服力</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>能力公式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>世界公式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>交互公式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>attraction</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>persuation</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>角色之间产生好感的程度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>吸引力 = 魅力 × 20 × （ 1 + 乘法修正值 ） +　加法修正值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>说服力 =（ 魅力 × 5 + 智力 × 5 )  × （ 1 + 乘法修正值 ） + 加法修正值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>角色交谈说服的属性，数值越大说服成功率越高</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>剑</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>刀</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>拳</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>弓</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>弩</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>铳</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>矛</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>棍</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>忍者爪</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>铁盔</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>chest</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>布帽</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>铁甲</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>布衣</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>皮衣</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>皮帽</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>马匹</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>医疗包</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>飞镖</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>毒针</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>药瓶</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>礼服</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>礼帽</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>工作帽</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>工作服</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>眼镜</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>武器属性加成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>敏捷</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>力量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>智力</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>joy</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>愉悦值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>愉悦值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>愉悦</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>愉悦值 = 休闲场所LV × 5 × 天数 × （ 1 + 乘法修正值 ） + 加法修正值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>角色感受到愉快的指数，指数越高角色越乐于接受任务和投入生产</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>愉悦值上限为100</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">愉悦值为0时，角色会拒绝接受任务，甚至背叛 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>用针暗杀目标</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>weapon</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>head</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>chest</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>assessory</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>属性分配</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>伤害</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>伤害值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>速度值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>速度百分比</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>伤害百分比</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>厨房</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>锻造室</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>药房</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>珠宝</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>裁缝</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>花卷</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>馒头</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>包子</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>蛋糕</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>面包</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>铁制头盔</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>铁制盔甲</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>铁制胸甲</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>粥</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>油条</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>拉面</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>团子</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>窝窝头</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>饺子</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>馅饼</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>消耗铁</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>消耗粮食</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>消耗草药</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>消耗宝石</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>消耗皮革</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>需要技能1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>需要技能2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>烹饪1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>烹饪2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>烹饪1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>烹饪2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>烹饪2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>烹饪3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>锻造1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>锻造1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>锻造2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>锻造2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>锻造2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>锻造3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>锻造3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>锻造3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>生鱼片</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>豆腐</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>沙拉</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>急救</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>丸子</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>青铜剑</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>袖箭</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>炸药包</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>烹饪1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>烹饪1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>草药1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>捕鱼1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>草药1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>珠宝1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>机关1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>机关1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>村正</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>锻造4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>反曲弓</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>裁缝1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>生产规则</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1.一个店铺最多容纳5个人进行生产</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>2.每个生产物品上显示生产所需要的技能数量，比如烹饪5，则意味着需要5个具有烹饪能力的成员进行烹饪。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">    2.1 如果生产物品所需烹饪5、草药2，则意味着需要5个具有烹饪能力，2个草药能力的成员进行烹饪</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>制皮</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>牛角帽</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>裁缝1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>制皮1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>牛角帽</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>制皮</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>火腿</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>恢复药</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>解毒药</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>毒药</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>迷幻剂</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>河豚毒</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>麻药</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>草药1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>草药1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>草药1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>草药1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>草药2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>草药2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>捕鱼1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>迷魂水</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>草药3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>化尸水</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>草药1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>体力药水</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>草药1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>急救1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>3.生产物品需要技能数量同时也需要消耗金币，金币不足则无法生产</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>4.在店铺放置成员，成员条件满足则可以用于生产，玩家点击商品则开始生产，玩家可以选择生产数量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>5.生产物资可以用于携带</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2197,15 +2197,15 @@
       </rPr>
       <t>.生产任务，比如完生产10个馒头，获得金额，参与生产的单位会获得经验值，经验提升后技能等级会提升，也有一定肯能激活新的技能</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>2.战斗任务，完成送货到指定目的地，路程行走时，可能会遇到劫匪，遇到劫匪</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>属性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2231,7 +2231,7 @@
       </rPr>
       <t>nimal</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2247,7 +2247,7 @@
       </rPr>
       <t>ool</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2263,7 +2263,7 @@
       </rPr>
       <t>sMale</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2279,11 +2279,11 @@
       </rPr>
       <t>pee</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2299,7 +2299,7 @@
       </rPr>
       <t>Animal</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2315,23 +2315,23 @@
       </rPr>
       <t>sMale</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>是否为动物</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>是否为男性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>逃脱</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>excape</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2347,42 +2347,42 @@
       </rPr>
       <t xml:space="preserve"> （ 敏捷 × 10 + 智力 × 10 ）* ( 1 + 乘法修正值 ） + 加法修正值      </t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>角色生命的恢复能力</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>角色在战斗或冲突中逃走的概率</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>逃脱能力</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   1.1 战斗中如果生命值为0则角色处于受重伤或死亡状态</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>2.行军规则</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Defense = (37.72*(85*7.5))/(100-37.72)</t>
   </si>
   <si>
     <t>Defense = (Armor*(CharacterLevel*7.5))/(100-Armor)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   1.2 战斗出手速度，根据出手速度决定出手频率，出手频率公式。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   2.1 在行军时，角色受重伤后需要特殊伤药回复（队员自动使用，使用后角色从重伤状态变为轻伤状态），</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2398,364 +2398,651 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>次数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        1.2.1 我方速度 = 100， 敌方速度 = 30， 则我方出手频率为 每秒攻击次数 = power(2,速度/200）/2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   1.3 战斗表现为即时制，双方互相攻击一条直线上的目标，直到目标死亡为止 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        1.3.1 如果目标当前方向没有攻击目标，则目标攻击不在一条直线上的其他目标</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        1.3.2 角色站位按照 ： 前排——剑/刀/拳/骑手 ，中排——矛手/棍手/忍术， 后排——弩手/铳手/弓手的方式站位</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>公式 = power(2,速度/200）/2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        1.2.2 剩余生命 = 当前生命 - 受到伤害， 剩余生命为零时角色无法继续战斗</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        2.1.3 轻伤队员可以通过行军慢慢恢复生命（每天恢复5%生命）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>3.角色规则</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        2.1.2 重伤队员无法恢复生命处于濒死状态，濒死状态会持续若干天数，如果在时间内未及时治疗，则濒死成员永久死亡</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        2.1.1 若无伤药则无法回复依然保持重伤状态，重伤状态队员无法继续出战</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   2.2 如果队伍中所有人都处于重伤或者死亡状态，则该队伍停止行军，队伍就地解散，重伤队员立刻回到公会主城。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   3.1 角色战斗会提升对应的技能经验，例如使用剑术战斗则提升剑术经验，剑术等级会升级</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        3.2.1 每种技能的等级上限为10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        2.2.1 行军过程中遇到遭遇战，会弹出提示咨询玩家是否战斗或者逃跑，战斗可以直接跳过战斗动画，显示战斗结果</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>4.暗杀规则</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        4.1.2 如果处于暗杀阶段，则可以根据队员的能力选择暗杀选项，例如毒药、爆炸、驱虫等</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>5.独狼</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>独狼</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>一个人执行任务，全属性加成20%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>6.战斗奖励</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   6.1 角色在每次战斗胜利后都会获得一定战斗奖励，包括金钱、物品</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>消耗类</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>装备类</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>配方类</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>绷带</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>解毒剂</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>变声药剂</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>迷幻剂</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>金创药</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>救心丸</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>防具</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>胸甲</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>饰品</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>食物配方</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>装备配方</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>药剂配方</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>珠宝配方</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>裁缝配方</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>特殊角色</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>金钱</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>资源类</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>粮食</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>铁矿</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>宝石</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   6.2 角色在行军过程中会遇到特殊事件或特殊宝箱，则可以获得其中的物品</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   6.3 公会完成任务则会获得对应奖励</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">       6.3.1 公会完成任务的额外内容则会获得额外奖励</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>7.进入大世界</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   7.1 角色组队后可以在大世界行走，玩家在大世界行走时无法选择行走路线，玩家会朝着目标地自动前行，每前进一格就会消耗粮食，成员的欢愉度也会下降</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   7.2 行军时的粮食为自动消耗，欢愉度可以选择扎营，扎营时选择选项：1.睡觉  2.饮酒  3.桑拿  4.唱歌，这些选项取决于玩家携带的物品和队员的特性技能</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        7.2.1 扎营有时间CD，在CD中时无法选择扎营，扎营结束后会有概率触发随机事件</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        7.2.3 扎营后会有根据类型增加队员的欢愉度，但是也会有一定概率降低队员的欢愉度，根据扎营选择</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        7.2.2 扎营时每个选项只能选择一次，直接选择“睡觉”则立即结束本次扎营</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1.战斗规则</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   3.2 角色初始都有默认武器。角色拥有战斗技能决定角色可以使用哪种武器，角色使用该武器战斗时才会增加该武器的等级</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   4.1 角色进入暗杀目标时，会通过菜单方式显示暗杀方案，暗杀成功时则目标死亡。如果暗杀失败会出现目标逃跑或者目标攻击事件</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        4.1.1 如果被强制进入目标攻击事件时，则进入遭遇战场景，进入遭遇战则需要强制攻击。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   5.1 只能一个人执行任务，在执行过程中所有属性加成20%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>8.好感</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   5.2 独狼在行走中声明恢复速度增加100%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>9.出征</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  8.1 队员彼此之间有好感值的隐藏属性，探索组队或者集体生产时好感值会影响对应队员的能力和工作效率</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  8.2 队员在行走过程中还会产生随机对话，队员彼此之间会有好感值设定</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  8.3 好感值会影响战斗中，队员彼此的属性变化。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  8.4 队员的个性和能力会影响彼此的好感取向，例如“女寡妇”能力就对男性的好感偏低，对女性的好感偏高</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  9.1 玩家选择了任务，点击执行会跳入到出征界面，出征界面需要玩家选择购买粮食和携带特殊物品</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  9.2 确认购买后选择进入大世界，在大世界里行走需要消耗粮食。如果粮食消耗为0，则队员会每次行走丧失5%的生命值和5%的欢愉值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">       9.2.1 当队员的生命值降为0时，该队员处于无法行动状态（重伤）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">       9.2.2 当队员的欢愉值降为0时，该队员处于高压状态，队员有可能拒绝行动或者叛逃</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>10.资源获得</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  10.1 金币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">       10.1.1 获取：玩家角色完成任务则可以获得相应金币/玩家贩卖生产的物质会获取一定金币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">       10.1.2 消耗：玩家角色在娱乐场所会消耗金币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">       10.1.3 装备：玩家角色购买装备会消耗金币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">       10.2.1 获取：玩家角色可以通过金币购买或者以物易物换取铁矿资源/玩家完成任务也可以获得铁矿</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">       10.2.2 消耗：玩家角色在铁匠铺里铸造装备会消耗铁矿</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  10.2 铁矿</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  10.3 宝石</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">       10.3.2 消耗：玩家角色在铁匠铺里铸造珠宝会消耗宝石</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  10.4 皮革</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">       10.3.1 获取：玩家角色可以通过金币购买或者以物易物换取宝石资源/玩家完成任务或战斗也可以获得宝石</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">       10.4.1 获取：玩家角色可以通过金币购买或者以物易物换取皮革资源/玩家完成任务或杀死动物也可以获得皮革</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">       10.4.2 消耗：玩家角色在裁缝铺里缝制衣服消耗皮革</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  11.1 有研究属性的角色走进房间，点击需要研究的条目，条目如果条件满足后则可以开始研究，一次只能研究一种科技</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.研究</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  11.2 开始研究的时候，如果角色的属性满足该研究的需求，则该角色的研究加成可以强化研究</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  11.3 研究需要消耗金币和研究技能等级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       11.3.1 角色参与研究技能可以提升技能等级经验</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       11.3.2 一个科技的研究甚至需要多种技能条件，例如某项科技同时需要：烹饪5和珠宝4，只有所有条件都满足后才可以进行研究</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       10.3.2 消耗：玩家角色在珠宝店里铸造珠宝会消耗宝石</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.3 角色之间还有好感值，初始好感值是通过角色彼此的天赋值决定，角色之间可以通过互相组队逐渐增加好感值。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">       3.3.1 一些特殊事件也可以增加角色之间的好感值</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        3.3.4 角色之间的感情可以破裂，破裂后情侣之间的羁绊就会消失 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        3.3.3 感情融洽的角色同时参与事情的时候，会有一定的属性加成</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>不孕</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法生育</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        3.3.5 角色产下孩子后，孩子名字将依照父亲的姓名。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        3.3.6 如果父亲和母亲都提前死亡，则未成年孩子会成为父母朋友的养子，如果父母没有朋友收养孩子则孩子消失。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        3.3.2 角色之间可以培养出感情，当男女、男男（必须是同性恋）、女女感情到达一定后会形成情侣关系，男女情侣会产生后代，后代需要满15岁才可以正式成人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        3.3.7 角色会有生老病死，到了一定岁数后会自然死亡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        3.3.8 角色死亡后，所有的装备都会返回到工会仓库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        3.3.9 角色有血缘关系或者夫妻关系会增加彼此的好感值，但是好感值也会因为某些事件而下降</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐同者</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐婚者</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对同性恋非常抵制</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        3.3.10 角色孩子的属性会在父母的最高属性中随机继承1个，其他属性随机分配，并且继承父母所有美德中的1个和怪癖中的1个</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        3.3.11 女性在怀孕期间会有属性下降的状态，生产后属性变为正常</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  5.3 独狼在逃脱时有加成概率</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.国家关系</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 如果国家关系友善的话，有会有更多的任务下达，但是国家君王也会提出一些上贡的要求</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 两个国家会互相下达任务让你前往刺杀对方的高级角色，如果直接行刺会暴露身份导致国家对你的关系对立</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   12.2 如果国家关系恶劣的话，会有招来国家的讨伐或者刺客骚扰。被讨伐时你可以选择投降或者抵抗</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  12.4 国家会对你下最后通牒，让你解释或者赔偿，如果你刺杀了皇室成员，则国家关系会立刻变为仇恨，国家不再对你发布任务</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">       12.4.1 除非你主动刺杀该国的国王，并且扶植自己的傀儡</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">       12.4.2 你会在一个月内受到其他王室派遣的杀手骚扰，并且你经过该国时，如果没有隐藏则会被该国通缉</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>路盲</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险家</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.3 如果你的队伍中有人具有冒险家特性，则在出发前会显示2-3条路线</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3019,64 +3306,95 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3084,101 +3402,75 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4053,7 +4345,7 @@
       <c r="S23" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4087,7 +4379,7 @@
       <c r="H1" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="N1" s="46" t="s">
         <v>573</v>
       </c>
     </row>
@@ -4122,10 +4414,10 @@
       <c r="L2" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="N2" s="54" t="s">
+      <c r="N2" s="48" t="s">
         <v>576</v>
       </c>
-      <c r="O2" s="54" t="s">
+      <c r="O2" s="48" t="s">
         <v>577</v>
       </c>
     </row>
@@ -4160,10 +4452,10 @@
       <c r="L3" s="22" t="s">
         <v>404</v>
       </c>
-      <c r="N3" s="55" t="s">
+      <c r="N3" s="49" t="s">
         <v>574</v>
       </c>
-      <c r="O3" s="55" t="s">
+      <c r="O3" s="49" t="s">
         <v>575</v>
       </c>
     </row>
@@ -4200,7 +4492,7 @@
       <c r="H6" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="48" t="s">
         <v>578</v>
       </c>
       <c r="K6" s="23" t="s">
@@ -4232,7 +4524,7 @@
       <c r="H7" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="I7" s="55" t="s">
+      <c r="I7" s="49" t="s">
         <v>579</v>
       </c>
       <c r="K7" s="22" t="s">
@@ -4246,7 +4538,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="60" t="s">
         <v>409</v>
       </c>
       <c r="B9" s="27" t="s">
@@ -4268,7 +4560,7 @@
       <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="46"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="30" t="s">
         <v>36</v>
       </c>
@@ -4288,7 +4580,7 @@
       <c r="N10" s="32"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="46"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="30" t="s">
         <v>40</v>
       </c>
@@ -4308,7 +4600,7 @@
       <c r="N11" s="32"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="46"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="30" t="s">
         <v>406</v>
       </c>
@@ -4328,7 +4620,7 @@
       <c r="N12" s="32"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="46"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="33" t="s">
         <v>407</v>
       </c>
@@ -4348,7 +4640,7 @@
       <c r="N13" s="35"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="60" t="s">
         <v>413</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -4370,7 +4662,7 @@
       <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="46"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="30" t="s">
         <v>392</v>
       </c>
@@ -4390,7 +4682,7 @@
       <c r="N16" s="32"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="46"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="30" t="s">
         <v>391</v>
       </c>
@@ -4410,7 +4702,7 @@
       <c r="N17" s="32"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" s="46"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="33" t="s">
         <v>396</v>
       </c>
@@ -4430,7 +4722,7 @@
       <c r="N18" s="35"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="61" t="s">
         <v>414</v>
       </c>
       <c r="B20" s="28" t="s">
@@ -4452,7 +4744,7 @@
       <c r="N20" s="29"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" s="57"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="31" t="s">
         <v>402</v>
       </c>
@@ -4461,7 +4753,7 @@
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
-      <c r="H21" s="60" t="s">
+      <c r="H21" s="52" t="s">
         <v>581</v>
       </c>
       <c r="I21" s="31"/>
@@ -4472,8 +4764,8 @@
       <c r="N21" s="32"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22" s="58"/>
-      <c r="B22" s="59" t="s">
+      <c r="A22" s="50"/>
+      <c r="B22" s="51" t="s">
         <v>580</v>
       </c>
       <c r="C22" s="34"/>
@@ -4481,7 +4773,7 @@
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
-      <c r="H22" s="59" t="s">
+      <c r="H22" s="51" t="s">
         <v>582</v>
       </c>
       <c r="I22" s="34"/>
@@ -4492,7 +4784,7 @@
       <c r="N22" s="35"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="60" t="s">
         <v>415</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -4514,7 +4806,7 @@
       <c r="N24" s="29"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" s="46"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="33" t="s">
         <v>420</v>
       </c>
@@ -4534,7 +4826,7 @@
       <c r="N25" s="35"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="60" t="s">
         <v>455</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -4556,7 +4848,7 @@
       <c r="N27" s="29"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" s="46"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="33" t="s">
         <v>458</v>
       </c>
@@ -4576,26 +4868,26 @@
       <c r="N28" s="35"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="O30" s="61" t="s">
+      <c r="O30" s="53" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="O31" s="61" t="s">
+      <c r="O31" s="53" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="33" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P33" s="52" t="s">
+      <c r="P33" s="46" t="s">
         <v>596</v>
       </c>
-      <c r="R33" s="52"/>
+      <c r="R33" s="46"/>
     </row>
     <row r="34" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P34" s="52" t="s">
+      <c r="P34" s="46" t="s">
         <v>590</v>
       </c>
-      <c r="Q34" s="52" t="s">
+      <c r="Q34" s="46" t="s">
         <v>591</v>
       </c>
     </row>
@@ -4706,7 +4998,7 @@
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A27:A28"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -4714,324 +5006,464 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B71"/>
+  <dimension ref="B2:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L69" sqref="L69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9" style="63"/>
+    <col min="1" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="55" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="55" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="55" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="55" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="55" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="55" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="55" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="55" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="55" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="55" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="55" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="55" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="55" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="55" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="55" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="63" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="68" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="55" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="63" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="55" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="63" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="55" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="63" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="55" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="68" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="68" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="68" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B28" s="68" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="68" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="68" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="68" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="68" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="68" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="68" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="55" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B25" s="63" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B38" s="55" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B26" s="63" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="55" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B27" s="63" t="s">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="55" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B29" s="63" t="s">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="55" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B30" s="63" t="s">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B43" s="55" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B31" s="63" t="s">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="55" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="63" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B45" s="68" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="55" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="63" t="s">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="55" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="63" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="55" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="63" t="s">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="55" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="63" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B51" s="55" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="63" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="55" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B40" s="63" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="55" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B41" s="63" t="s">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="55" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B42" s="63" t="s">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="55" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B43" s="63" t="s">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="55" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B44" s="63" t="s">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="55" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B46" s="63" t="s">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B60" s="55" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B47" s="63" t="s">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B61" s="55" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B48" s="63" t="s">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B62" s="55" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="63" t="s">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B63" s="55" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="63" t="s">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B64" s="55" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B52" s="63" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B66" s="55" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B53" s="67" t="s">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B67" s="59" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B54" s="63" t="s">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B68" s="55" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B55" s="63" t="s">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B69" s="55" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B56" s="63" t="s">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B70" s="55" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B58" s="63" t="s">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B72" s="55" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B59" s="63" t="s">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B73" s="55" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B60" s="63" t="s">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B74" s="55" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B61" s="63" t="s">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B75" s="55" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B62" s="63" t="s">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B76" s="55" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B63" s="63" t="s">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B77" s="55" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B64" s="63" t="s">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B78" s="55" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B65" s="63" t="s">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B79" s="55" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B66" s="63" t="s">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B80" s="55" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B67" s="63" t="s">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B81" s="55" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B82" s="68" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B83" s="55" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B84" s="55" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B68" s="63" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B69" s="63" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B70" s="63" t="s">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B85" s="55" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B71" s="63" t="s">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B87" s="68" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B88" s="68" t="s">
         <v>676</v>
       </c>
     </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B89" s="68" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B90" s="68" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B91" s="68" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B92" s="68" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B93" s="68" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B94" s="70" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B95" s="70" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B96" s="68" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B97" s="70" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B98" s="68" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B99" s="68" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B100" s="68" t="s">
+        <v>709</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5046,112 +5478,112 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="9" style="64"/>
-    <col min="6" max="6" width="11.25" style="64" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="64"/>
+    <col min="1" max="5" width="9" style="56"/>
+    <col min="6" max="6" width="11.25" style="56" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="56"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="57" t="s">
         <v>634</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="57" t="s">
         <v>613</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="57" t="s">
         <v>614</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="57" t="s">
         <v>615</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="57" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="58" t="s">
         <v>633</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="58" t="s">
         <v>616</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="58" t="s">
         <v>622</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="58" t="s">
         <v>626</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="58" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="58" t="s">
         <v>635</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="58" t="s">
         <v>617</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="58" t="s">
         <v>623</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="F4" s="66"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="58" t="s">
         <v>636</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="58" t="s">
         <v>618</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="58" t="s">
         <v>624</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="58" t="s">
         <v>628</v>
       </c>
-      <c r="F5" s="66"/>
+      <c r="F5" s="58"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="58" t="s">
         <v>637</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="58" t="s">
         <v>619</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="58" t="s">
         <v>625</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="58" t="s">
         <v>629</v>
       </c>
-      <c r="F6" s="66"/>
+      <c r="F6" s="58"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="66"/>
-      <c r="C7" s="66" t="s">
+      <c r="B7" s="58"/>
+      <c r="C7" s="58" t="s">
         <v>620</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58" t="s">
         <v>630</v>
       </c>
-      <c r="F7" s="66"/>
+      <c r="F7" s="58"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="66"/>
-      <c r="C8" s="66" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="58" t="s">
         <v>621</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5161,7 +5593,7 @@
   <dimension ref="B2:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -5454,7 +5886,7 @@
       <c r="L15" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -5464,8 +5896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -5485,15 +5917,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="48"/>
+      <c r="C2" s="64"/>
       <c r="D2" s="16"/>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="48"/>
+      <c r="F2" s="64"/>
       <c r="L2" s="17" t="s">
         <v>261</v>
       </c>
@@ -5515,7 +5947,7 @@
       <c r="F3" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="47" t="s">
         <v>568</v>
       </c>
       <c r="I3" s="16"/>
@@ -5551,10 +5983,10 @@
       <c r="F4" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="46" t="s">
         <v>569</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="46" t="s">
         <v>570</v>
       </c>
       <c r="L4" s="17" t="s">
@@ -5589,10 +6021,10 @@
       <c r="F5" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="46" t="s">
         <v>571</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="46" t="s">
         <v>570</v>
       </c>
       <c r="L5" s="17" t="s">
@@ -5624,7 +6056,7 @@
       <c r="F6" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="46" t="s">
         <v>572</v>
       </c>
       <c r="L6" s="17" t="s">
@@ -6202,10 +6634,10 @@
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="54" t="s">
         <v>609</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="54" t="s">
         <v>610</v>
       </c>
       <c r="E28" s="19" t="s">
@@ -6222,6 +6654,9 @@
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B29" s="69" t="s">
+        <v>711</v>
+      </c>
       <c r="E29" s="19" t="s">
         <v>363</v>
       </c>
@@ -6236,6 +6671,12 @@
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="E30" s="69" t="s">
+        <v>688</v>
+      </c>
+      <c r="F30" s="69" t="s">
+        <v>689</v>
+      </c>
       <c r="L30" s="17" t="s">
         <v>143</v>
       </c>
@@ -6244,6 +6685,12 @@
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="E31" s="69" t="s">
+        <v>696</v>
+      </c>
+      <c r="F31" s="69" t="s">
+        <v>699</v>
+      </c>
       <c r="L31" s="17" t="s">
         <v>144</v>
       </c>
@@ -6252,6 +6699,12 @@
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="E32" s="69" t="s">
+        <v>697</v>
+      </c>
+      <c r="F32" s="69" t="s">
+        <v>698</v>
+      </c>
       <c r="L32" s="17" t="s">
         <v>145</v>
       </c>
@@ -6259,7 +6712,10 @@
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E33" s="69" t="s">
+        <v>710</v>
+      </c>
       <c r="L33" s="17" t="s">
         <v>146</v>
       </c>
@@ -6267,7 +6723,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:13" x14ac:dyDescent="0.35">
       <c r="L34" s="17" t="s">
         <v>147</v>
       </c>
@@ -6275,7 +6731,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:13" x14ac:dyDescent="0.35">
       <c r="L35" s="17" t="s">
         <v>148</v>
       </c>
@@ -6283,7 +6739,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:13" x14ac:dyDescent="0.35">
       <c r="L36" s="17" t="s">
         <v>149</v>
       </c>
@@ -6291,7 +6747,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:13" x14ac:dyDescent="0.35">
       <c r="L37" s="17" t="s">
         <v>150</v>
       </c>
@@ -6299,7 +6755,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:13" x14ac:dyDescent="0.35">
       <c r="L38" s="17" t="s">
         <v>151</v>
       </c>
@@ -6307,7 +6763,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:13" x14ac:dyDescent="0.35">
       <c r="L39" s="17" t="s">
         <v>152</v>
       </c>
@@ -6315,7 +6771,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:13" x14ac:dyDescent="0.35">
       <c r="L40" s="17" t="s">
         <v>153</v>
       </c>
@@ -6323,7 +6779,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:13" x14ac:dyDescent="0.35">
       <c r="L41" s="17" t="s">
         <v>154</v>
       </c>
@@ -6331,7 +6787,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="42" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:13" x14ac:dyDescent="0.35">
       <c r="L42" s="17" t="s">
         <v>155</v>
       </c>
@@ -6339,7 +6795,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="43" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:13" x14ac:dyDescent="0.35">
       <c r="L43" s="17" t="s">
         <v>156</v>
       </c>
@@ -6347,7 +6803,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:13" x14ac:dyDescent="0.35">
       <c r="L44" s="17" t="s">
         <v>157</v>
       </c>
@@ -6355,7 +6811,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:13" x14ac:dyDescent="0.35">
       <c r="L45" s="17" t="s">
         <v>158</v>
       </c>
@@ -6365,7 +6821,7 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6507,12 +6963,12 @@
       <c r="B13" s="36" t="s">
         <v>448</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="65" t="s">
         <v>465</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="67"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="23" t="s">
@@ -6610,7 +7066,7 @@
       <c r="F19" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="G19" s="54" t="s">
+      <c r="G19" s="48" t="s">
         <v>583</v>
       </c>
     </row>
@@ -6686,7 +7142,7 @@
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="48" t="s">
         <v>583</v>
       </c>
     </row>
@@ -6694,7 +7150,7 @@
   <mergeCells count="1">
     <mergeCell ref="D13:G13"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -6704,8 +7160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:O15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -7496,17 +7952,17 @@
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="46" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="46" t="s">
         <v>567</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/config/shadowGuild.xlsx
+++ b/config/shadowGuild.xlsx
@@ -4,31 +4,32 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="角色" sheetId="1" r:id="rId1"/>
     <sheet name="属性" sheetId="2" r:id="rId2"/>
     <sheet name="规则" sheetId="8" r:id="rId3"/>
-    <sheet name="物品" sheetId="9" r:id="rId4"/>
-    <sheet name="能力" sheetId="3" r:id="rId5"/>
-    <sheet name="品德" sheetId="4" r:id="rId6"/>
-    <sheet name="装备" sheetId="6" r:id="rId7"/>
-    <sheet name="生产" sheetId="7" r:id="rId8"/>
+    <sheet name="科技" sheetId="10" r:id="rId4"/>
+    <sheet name="物品" sheetId="9" r:id="rId5"/>
+    <sheet name="能力" sheetId="3" r:id="rId6"/>
+    <sheet name="品德" sheetId="4" r:id="rId7"/>
+    <sheet name="装备" sheetId="6" r:id="rId8"/>
+    <sheet name="生产" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="762">
   <si>
     <t>id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -44,19 +45,19 @@
       </rPr>
       <t>irtue</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>eccentricity</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>weapon</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>head</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -72,451 +73,451 @@
       </rPr>
       <t>hest</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>accessory</t>
   </si>
   <si>
     <t>combat</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>production</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>assassination</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>sociality</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>strength</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>agility</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>constitution</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>intelligence</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>荆轲</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>角色姓名：角色姓名分为真实人名和随机名称，随机名字由姓和名两个部分组成</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>生产能力：在生产研究中的能力，该能力用于生产和研究的修正</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>能力：所有能力的上限值为10，最低值为0，一个角色最多拥有一种类型的3种能力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>暗杀能力：在暗杀方面的能力，该能力用于暗杀的修正</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>社交能力：在社交方面的能力，该能力用于社交的修正</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>烹饪5
 铁匠7</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>剑术5
 刀术2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>毒药6
 爆炸3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>喝酒7
 跳舞5</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>战斗能力：使用某种战斗手段的能力，该能力用于修正伤害值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>美德：角色的优良品行，品行可以影响角色的一些特殊选择</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>怪癖：角色的不良品行，怪癖可以影响角色的一些特殊选择</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>坚毅</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>好色
 贪吃</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>匕首</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>铁盔</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>皮甲</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>钻戒</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>装备：分为武器、头、胸、挂件4大部分，可以用于修正角色能力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>速度 = 敏捷 × 20 × （ 1 + 乘法修正值） + 加法修正值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>生命 = 体质 × 25 × （ 1 + 乘法修正值） + 加法修正值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>战斗中可以承受击打的能力，生命力为0则失去战斗能力，可能死亡、重伤、失去知觉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>战斗中出手的速度，速度快的单位可以连续出手</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">伤害 = 力量 × 8 × （ 1 + 乘法修正值） + 加法修正值  </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>战斗中实际造成的伤害</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>研究能力，加快研究速度</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>在与NPC交互时天生吸引人的能力，魅力高的角色可以经常从事间谍活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>charm</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>charm</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>角色属性：角色属性上限值为10，属性的影响，constitution生命值寿命，agility出手速度，strength攻击伤害，intelligence影响研发效果，charm影响对人的吸引力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>战斗能力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>能力介绍</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>生产能力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>暗杀能力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>社交能力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>剑术</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>刀术</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>拳术</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>弓术</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>制皮</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>锻造</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>草药</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>裁缝</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>机关</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>烹饪</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>可以使用剑武器</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>可以使用刀武器</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>可以使用拳套武器</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>弩术</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>可以使用弓武器</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>可以使用弩武器</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>可以使用火枪武器</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>锻造武器</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>制造药水</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>制造食物</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>制造特殊武器</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>制造衣服</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>制造皮具</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>采矿</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>采集矿藏</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>种植</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>种植粮食</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>捕捉鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>矛术</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>可以使用长矛</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>马术</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>可以使用马匹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>易容</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>毒药</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>催眠</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>茶道</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>赌博</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>插花</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>品酒</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>舞蹈</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>吟诗</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>斗犬</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>跑马</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>迷烟</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>毒刃</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>筒针</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>蹴鞠</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>炸弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>铳术</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>忍术</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>可以使用特殊忍者武器</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>棍术</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>可以使用棍棒</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>辩论</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>驭蛇</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>驱虫</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>珠宝</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>制造珠宝</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>远狙</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>美德</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>怪癖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>beast hater</t>
@@ -952,1236 +953,1236 @@
   </si>
   <si>
     <t>美德</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>怪癖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>动物杀手</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>clotter</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>步行者</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>健身</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>10%生命</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>大世界移动10%</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>条件反射</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>10%速度</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>10%用刀伤害</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>快刀手</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>10%用剑伤害</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>神箭手</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>剑豪</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>10%用弓伤害</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>弩手</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>10%用弩伤害</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>牧马人</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>10%骑马伤害</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>忍者大师</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>10%忍术伤害</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>黑寡妇</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>交际花</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>直男癌</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>男闺蜜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>外交官</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>隐匿者</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>肥胖者</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>厌食症</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>减少体力恢复速度</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>大世界移动-10%</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>对动物有10%伤害</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>畏犬者</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>受到动物伤害10%</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>自闭症</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>自大狂</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>和人交往减少10%舒适度</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>敛财者</t>
   </si>
   <si>
     <t>小气鬼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>会侵吞别人的资产</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>很少轻易花钱购买道具</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>易怒者</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>逃脱概率+10%</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>无法进入赌场</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>酒鬼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>无法进入冥想室</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>性变态</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>厨神</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>最强大脑</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>病痨</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>老千</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>虐待狂</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>赏金杀手</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>杀人狂</t>
   </si>
   <si>
     <t>残疾</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>生命值-10%</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>速度-10%</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>胆小鬼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>自虐</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>近视眼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>无法使用弓箭</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>神枪手</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>10%用铳伤害</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>黑暗料理</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>烹饪效果-20%
 概率烹制出黑暗料理</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>赌鬼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>和人交谈减少20%说服力
 智力加5%</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>和人交谈成功率-20%
 战斗伤害+5%</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>战斗时提高10%伤害
 魅力-10%</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>暗杀时成功率提高10%</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>研究效果20%</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>烹饪效果20%</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>对男性额外20%伤害
 和男性相处-10%吸引</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>对女性额外20%伤害
 和女性相处-10%吸引</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>对女性有额外20%吸引
 对女性减少10%伤害</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>虔诚者</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>和人交谈增加20%说服力
 战斗减少10%伤害</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>艺伎</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>对男性有额外20%吸引
 对男性减少10%伤害</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>茶艺师</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>舞蹈能力+10%</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>茶艺能力+10%</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>拳击手</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>拳术伤害提高20%
 其他伤害减少-10%</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>无法使用暗杀手段
 伤害提高10%</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>骑手</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>马术能力+10%</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>生命恢复提高10%
 战斗时减少10%伤害</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>生命恢复-10%</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>只喜欢赌场
 赌博增加20%欢愉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>只喜欢冥想室
 冥想增加20%欢愉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>只喜欢喝酒
 喝酒增加20%欢愉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>领袖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>作为队长时</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>女权主义</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>不会与男性组队</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>男权主义</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>不会与女性组队</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>与男性组队时伤害+10%</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>与女性组队时伤害+10%</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>男同主义</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>女同主义</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>一级属性</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>生命值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>速度</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>伤害</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>暴击率</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>战斗属性</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>体质</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>敏捷</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>力量</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>智力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>魅力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>hp</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>speed</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>damage</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>crit</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>reasearch</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>魅力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>charm</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>魅力值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>研究值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>生产值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>product</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>movement</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>世界属性</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>能力属性</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>暗杀值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>assassination</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>生产值 = （ 体质 × 5 + 智力 × 5 ）× （ 1 + 乘法修正值 ） + 加法修正值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">魅力值 = 颜值 × 10 × （ 1 + 乘法修正值） + 加法修正值  </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">研究值 = 智力 × 10 × （ 1 + 乘法修正值） + 加法修正值  </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>生产效率的属性，数值越大生产效率越高</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>暗杀能力的属性，数值越大暗杀成功率越高</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>暗杀值 = （ 敏捷 × 5 + 智力 × 5 ）× （ 1 + 乘法修正值 ） + 加法修正值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>移动力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>移动力 = （ 体质 × 5 + 敏捷 × 5 )  × （ 1 + 乘法修正值 ） + 加法修正值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>大世界地图的移动能力，数值越大移动越快</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>回复力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>restoration</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">回复力 = 体质 × 10 × （ 1 + 乘法修正值 ） + 加法修正值       </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>格挡率</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>block</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>战斗中造成致命一击的概率，致命一击将造成1.5倍伤害</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>暴击率 = （ 敏捷 × 10 + 力量 × 5） × （ 1 + 乘法修正值 ） + 加法修正值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">格挡率 = （ 体质 × 10 + 力量 × 5） × （ 1 + 乘法修正值 ） + 加法修正值 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>战斗中减少伤害的概率，抵消50%的伤害</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>战斗公式</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>交互属性</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>吸引力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>说服力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>能力公式</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>世界公式</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>交互公式</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>attraction</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>persuation</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>角色之间产生好感的程度</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>吸引力 = 魅力 × 20 × （ 1 + 乘法修正值 ） +　加法修正值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>说服力 =（ 魅力 × 5 + 智力 × 5 )  × （ 1 + 乘法修正值 ） + 加法修正值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>角色交谈说服的属性，数值越大说服成功率越高</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>剑</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>刀</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>拳</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>弓</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>弩</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>铳</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>矛</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>棍</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>忍者爪</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>铁盔</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>chest</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>布帽</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>铁甲</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>布衣</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>皮衣</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>皮帽</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>马匹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>医疗包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>飞镖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>毒针</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>药瓶</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>礼服</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>礼帽</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>工作帽</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>工作服</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>眼镜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>武器属性加成</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>敏捷</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>力量</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>智力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>joy</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>愉悦值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>愉悦值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>愉悦</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>愉悦值 = 休闲场所LV × 5 × 天数 × （ 1 + 乘法修正值 ） + 加法修正值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>角色感受到愉快的指数，指数越高角色越乐于接受任务和投入生产</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>愉悦值上限为100</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">愉悦值为0时，角色会拒绝接受任务，甚至背叛 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>用针暗杀目标</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>weapon</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>head</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>chest</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>assessory</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>属性分配</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>伤害</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>伤害值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>速度值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>速度百分比</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>伤害百分比</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>厨房</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>锻造室</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>药房</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>珠宝</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>裁缝</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>花卷</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>馒头</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>包子</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>蛋糕</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>面包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>铁制头盔</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>铁制盔甲</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>铁制胸甲</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>粥</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>油条</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>拉面</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>团子</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>窝窝头</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>饺子</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>馅饼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>消耗铁</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>消耗粮食</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>消耗草药</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>消耗宝石</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>消耗皮革</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>需要技能1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>需要技能2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>烹饪1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>烹饪2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>烹饪1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>烹饪2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>烹饪2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>烹饪3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>锻造1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>锻造1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>锻造2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>锻造2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>锻造2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>锻造3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>锻造3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>锻造3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>生鱼片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>豆腐</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>沙拉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>急救</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>丸子</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>青铜剑</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>袖箭</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>炸药包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>烹饪1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>烹饪1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>草药1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>捕鱼1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>草药1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>珠宝1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>机关1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>机关1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>村正</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>锻造4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>反曲弓</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>裁缝1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>生产规则</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1.一个店铺最多容纳5个人进行生产</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2.每个生产物品上显示生产所需要的技能数量，比如烹饪5，则意味着需要5个具有烹饪能力的成员进行烹饪。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">    2.1 如果生产物品所需烹饪5、草药2，则意味着需要5个具有烹饪能力，2个草药能力的成员进行烹饪</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>制皮</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>牛角帽</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>裁缝1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>制皮1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>牛角帽</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>制皮</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>火腿</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>恢复药</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>解毒药</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>毒药</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>迷幻剂</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>河豚毒</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>麻药</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>草药1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>草药1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>草药1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>草药1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>草药2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>草药2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>捕鱼1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>迷魂水</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>草药3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>化尸水</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>草药1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>体力药水</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>草药1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>急救1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>3.生产物品需要技能数量同时也需要消耗金币，金币不足则无法生产</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>4.在店铺放置成员，成员条件满足则可以用于生产，玩家点击商品则开始生产，玩家可以选择生产数量</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>5.生产物资可以用于携带</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2197,15 +2198,15 @@
       </rPr>
       <t>.生产任务，比如完生产10个馒头，获得金额，参与生产的单位会获得经验值，经验提升后技能等级会提升，也有一定肯能激活新的技能</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2.战斗任务，完成送货到指定目的地，路程行走时，可能会遇到劫匪，遇到劫匪</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>属性</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2231,7 +2232,7 @@
       </rPr>
       <t>nimal</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2247,7 +2248,7 @@
       </rPr>
       <t>ool</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2263,7 +2264,7 @@
       </rPr>
       <t>sMale</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2279,11 +2280,11 @@
       </rPr>
       <t>pee</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2299,7 +2300,7 @@
       </rPr>
       <t>Animal</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2315,23 +2316,23 @@
       </rPr>
       <t>sMale</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>是否为动物</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>是否为男性</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>逃脱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>excape</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2347,42 +2348,42 @@
       </rPr>
       <t xml:space="preserve"> （ 敏捷 × 10 + 智力 × 10 ）* ( 1 + 乘法修正值 ） + 加法修正值      </t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>角色生命的恢复能力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>角色在战斗或冲突中逃走的概率</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>逃脱能力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   1.1 战斗中如果生命值为0则角色处于受重伤或死亡状态</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2.行军规则</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Defense = (37.72*(85*7.5))/(100-37.72)</t>
   </si>
   <si>
     <t>Defense = (Armor*(CharacterLevel*7.5))/(100-Armor)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   1.2 战斗出手速度，根据出手速度决定出手频率，出手频率公式。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   2.1 在行军时，角色受重伤后需要特殊伤药回复（队员自动使用，使用后角色从重伤状态变为轻伤状态），</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2398,367 +2399,367 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>次数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        1.2.1 我方速度 = 100， 敌方速度 = 30， 则我方出手频率为 每秒攻击次数 = power(2,速度/200）/2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   1.3 战斗表现为即时制，双方互相攻击一条直线上的目标，直到目标死亡为止 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        1.3.1 如果目标当前方向没有攻击目标，则目标攻击不在一条直线上的其他目标</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        1.3.2 角色站位按照 ： 前排——剑/刀/拳/骑手 ，中排——矛手/棍手/忍术， 后排——弩手/铳手/弓手的方式站位</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>公式 = power(2,速度/200）/2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        1.2.2 剩余生命 = 当前生命 - 受到伤害， 剩余生命为零时角色无法继续战斗</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        2.1.3 轻伤队员可以通过行军慢慢恢复生命（每天恢复5%生命）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>3.角色规则</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        2.1.2 重伤队员无法恢复生命处于濒死状态，濒死状态会持续若干天数，如果在时间内未及时治疗，则濒死成员永久死亡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        2.1.1 若无伤药则无法回复依然保持重伤状态，重伤状态队员无法继续出战</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   2.2 如果队伍中所有人都处于重伤或者死亡状态，则该队伍停止行军，队伍就地解散，重伤队员立刻回到公会主城。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   3.1 角色战斗会提升对应的技能经验，例如使用剑术战斗则提升剑术经验，剑术等级会升级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        3.2.1 每种技能的等级上限为10</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        2.2.1 行军过程中遇到遭遇战，会弹出提示咨询玩家是否战斗或者逃跑，战斗可以直接跳过战斗动画，显示战斗结果</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>4.暗杀规则</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        4.1.2 如果处于暗杀阶段，则可以根据队员的能力选择暗杀选项，例如毒药、爆炸、驱虫等</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>5.独狼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>独狼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>一个人执行任务，全属性加成20%</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>6.战斗奖励</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   6.1 角色在每次战斗胜利后都会获得一定战斗奖励，包括金钱、物品</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>消耗类</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>装备类</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>配方类</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>绷带</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>解毒剂</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>变声药剂</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>迷幻剂</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>金创药</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>救心丸</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>防具</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>胸甲</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>饰品</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>食物配方</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>装备配方</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>药剂配方</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>珠宝配方</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>裁缝配方</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>特殊角色</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>金钱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>资源类</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>粮食</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>铁矿</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>宝石</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   6.2 角色在行军过程中会遇到特殊事件或特殊宝箱，则可以获得其中的物品</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   6.3 公会完成任务则会获得对应奖励</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">       6.3.1 公会完成任务的额外内容则会获得额外奖励</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>7.进入大世界</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   7.1 角色组队后可以在大世界行走，玩家在大世界行走时无法选择行走路线，玩家会朝着目标地自动前行，每前进一格就会消耗粮食，成员的欢愉度也会下降</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   7.2 行军时的粮食为自动消耗，欢愉度可以选择扎营，扎营时选择选项：1.睡觉  2.饮酒  3.桑拿  4.唱歌，这些选项取决于玩家携带的物品和队员的特性技能</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        7.2.1 扎营有时间CD，在CD中时无法选择扎营，扎营结束后会有概率触发随机事件</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        7.2.3 扎营后会有根据类型增加队员的欢愉度，但是也会有一定概率降低队员的欢愉度，根据扎营选择</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        7.2.2 扎营时每个选项只能选择一次，直接选择“睡觉”则立即结束本次扎营</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1.战斗规则</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   3.2 角色初始都有默认武器。角色拥有战斗技能决定角色可以使用哪种武器，角色使用该武器战斗时才会增加该武器的等级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   4.1 角色进入暗杀目标时，会通过菜单方式显示暗杀方案，暗杀成功时则目标死亡。如果暗杀失败会出现目标逃跑或者目标攻击事件</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        4.1.1 如果被强制进入目标攻击事件时，则进入遭遇战场景，进入遭遇战则需要强制攻击。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   5.1 只能一个人执行任务，在执行过程中所有属性加成20%</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>8.好感</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   5.2 独狼在行走中声明恢复速度增加100%</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>9.出征</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  8.1 队员彼此之间有好感值的隐藏属性，探索组队或者集体生产时好感值会影响对应队员的能力和工作效率</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  8.2 队员在行走过程中还会产生随机对话，队员彼此之间会有好感值设定</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  8.3 好感值会影响战斗中，队员彼此的属性变化。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  8.4 队员的个性和能力会影响彼此的好感取向，例如“女寡妇”能力就对男性的好感偏低，对女性的好感偏高</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  9.1 玩家选择了任务，点击执行会跳入到出征界面，出征界面需要玩家选择购买粮食和携带特殊物品</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  9.2 确认购买后选择进入大世界，在大世界里行走需要消耗粮食。如果粮食消耗为0，则队员会每次行走丧失5%的生命值和5%的欢愉值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">       9.2.1 当队员的生命值降为0时，该队员处于无法行动状态（重伤）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">       9.2.2 当队员的欢愉值降为0时，该队员处于高压状态，队员有可能拒绝行动或者叛逃</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>10.资源获得</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  10.1 金币</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">       10.1.1 获取：玩家角色完成任务则可以获得相应金币/玩家贩卖生产的物质会获取一定金币</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">       10.1.2 消耗：玩家角色在娱乐场所会消耗金币</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">       10.1.3 装备：玩家角色购买装备会消耗金币</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">       10.2.1 获取：玩家角色可以通过金币购买或者以物易物换取铁矿资源/玩家完成任务也可以获得铁矿</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">       10.2.2 消耗：玩家角色在铁匠铺里铸造装备会消耗铁矿</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  10.2 铁矿</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  10.3 宝石</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  10.4 皮革</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">       10.3.1 获取：玩家角色可以通过金币购买或者以物易物换取宝石资源/玩家完成任务或战斗也可以获得宝石</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">       10.4.1 获取：玩家角色可以通过金币购买或者以物易物换取皮革资源/玩家完成任务或杀死动物也可以获得皮革</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">       10.4.2 消耗：玩家角色在裁缝铺里缝制衣服消耗皮革</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  11.1 有研究属性的角色走进房间，点击需要研究的条目，条目如果条件满足后则可以开始研究，一次只能研究一种科技</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>11.研究</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  11.2 开始研究的时候，如果角色的属性满足该研究的需求，则该角色的研究加成可以强化研究</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  11.3 研究需要消耗金币和研究技能等级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">       11.3.1 角色参与研究技能可以提升技能等级经验</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2774,19 +2775,19 @@
       </rPr>
       <t xml:space="preserve">    </t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">       11.3.2 一个科技的研究甚至需要多种技能条件，例如某项科技同时需要：烹饪5和珠宝4，只有所有条件都满足后才可以进行研究</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">       10.3.2 消耗：玩家角色在珠宝店里铸造珠宝会消耗宝石</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   3.3 角色之间还有好感值，初始好感值是通过角色彼此的天赋值决定，角色之间可以通过互相组队逐渐增加好感值。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2802,71 +2803,71 @@
       </rPr>
       <t xml:space="preserve">       3.3.1 一些特殊事件也可以增加角色之间的好感值</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        3.3.4 角色之间的感情可以破裂，破裂后情侣之间的羁绊就会消失 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        3.3.3 感情融洽的角色同时参与事情的时候，会有一定的属性加成</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>不孕</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>无法生育</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        3.3.5 角色产下孩子后，孩子名字将依照父亲的姓名。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        3.3.6 如果父亲和母亲都提前死亡，则未成年孩子会成为父母朋友的养子，如果父母没有朋友收养孩子则孩子消失。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        3.3.2 角色之间可以培养出感情，当男女、男男（必须是同性恋）、女女感情到达一定后会形成情侣关系，男女情侣会产生后代，后代需要满15岁才可以正式成人</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        3.3.7 角色会有生老病死，到了一定岁数后会自然死亡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        3.3.8 角色死亡后，所有的装备都会返回到工会仓库</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        3.3.9 角色有血缘关系或者夫妻关系会增加彼此的好感值，但是好感值也会因为某些事件而下降</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>恐同者</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>恐婚者</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>不会</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>对同性恋非常抵制</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        3.3.10 角色孩子的属性会在父母的最高属性中随机继承1个，其他属性随机分配，并且继承父母所有美德中的1个和怪癖中的1个</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        3.3.11 女性在怀孕期间会有属性下降的状态，生产后属性变为正常</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2882,11 +2883,11 @@
       </rPr>
       <t xml:space="preserve">  5.3 独狼在逃脱时有加成概率</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>12.国家关系</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2922,7 +2923,7 @@
       </rPr>
       <t xml:space="preserve"> 如果国家关系友善的话，有会有更多的任务下达，但是国家君王也会提出一些上贡的要求</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2958,11 +2959,11 @@
       </rPr>
       <t xml:space="preserve"> 两个国家会互相下达任务让你前往刺杀对方的高级角色，如果直接行刺会暴露身份导致国家对你的关系对立</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   12.2 如果国家关系恶劣的话，会有招来国家的讨伐或者刺客骚扰。被讨伐时你可以选择投降或者抵抗</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2978,7 +2979,7 @@
       </rPr>
       <t xml:space="preserve">  12.4 国家会对你下最后通牒，让你解释或者赔偿，如果你刺杀了皇室成员，则国家关系会立刻变为仇恨，国家不再对你发布任务</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2994,7 +2995,7 @@
       </rPr>
       <t xml:space="preserve">       12.4.1 除非你主动刺杀该国的国王，并且扶植自己的傀儡</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3010,32 +3011,271 @@
       </rPr>
       <t xml:space="preserve">       12.4.2 你会在一个月内受到其他王室派遣的杀手骚扰，并且你经过该国时，如果没有隐藏则会被该国通缉</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>路盲</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>冒险家</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   2.3 如果你的队伍中有人具有冒险家特性，则在出发前会显示2-3条路线</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.工会入侵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  13.1 工会会受到其他工会的挑战或者国家的敌视</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  13.2 敌对势力会派遣队伍进攻你的工会，敌对势力的进攻路线将在大地图上显示</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  13.3 你需要在敌对势力到来之前布置好防御或者直接迎战入侵的队伍</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   13.4 如果你在工会防御战里失败，你会损失大量金钱，甚至会遭受到人员的流失和叛变</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        13.4.1 你的工会会被洗劫，资源会被卷走60%</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        13.4.2 你的工会会国家接管，你的只能接受该国部署的任务，但是这不妨碍你执行特殊任务</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        13.4.3 你的工会会被国家消灭，此时你的游戏将结束</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>后勤术</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>后勤</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>外交</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融术</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>激励主义</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>侦查术</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行军术</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>烹饪术</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战高手</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程射手</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行军术</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>侦查术</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>激励手段</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>使得成员欢愉值提高</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿藏</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>剥皮术</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在战斗后获得动物皮毛</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>经商术</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在大世界上行走获得矿藏</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>草药</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在矿藏里提炼宝石</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在大世界行走获得草药</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在娱乐增加金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加酒馆带来的欢愉</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘主义</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗保险</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>赌城</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高赌场带来的欢愉</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高冥想室带来的欢愉</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高医疗站带来的欢愉</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高行军的速度</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以更多侦查情报</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗杀术</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃脱术</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力锻炼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战攻击提高</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程攻击提高</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>马背杀手</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>马上攻击提高</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3306,64 +3546,95 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3371,108 +3642,88 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4345,7 +4596,7 @@
       <c r="S23" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4355,7 +4606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30:K58"/>
     </sheetView>
   </sheetViews>
@@ -4538,7 +4789,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="63" t="s">
         <v>409</v>
       </c>
       <c r="B9" s="27" t="s">
@@ -4560,7 +4811,7 @@
       <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="60"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="30" t="s">
         <v>36</v>
       </c>
@@ -4580,7 +4831,7 @@
       <c r="N10" s="32"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="60"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="30" t="s">
         <v>40</v>
       </c>
@@ -4600,7 +4851,7 @@
       <c r="N11" s="32"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="60"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="30" t="s">
         <v>406</v>
       </c>
@@ -4620,7 +4871,7 @@
       <c r="N12" s="32"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="60"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="33" t="s">
         <v>407</v>
       </c>
@@ -4640,7 +4891,7 @@
       <c r="N13" s="35"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="63" t="s">
         <v>413</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -4662,7 +4913,7 @@
       <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="60"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="30" t="s">
         <v>392</v>
       </c>
@@ -4682,7 +4933,7 @@
       <c r="N16" s="32"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="60"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="30" t="s">
         <v>391</v>
       </c>
@@ -4702,7 +4953,7 @@
       <c r="N17" s="32"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" s="60"/>
+      <c r="A18" s="63"/>
       <c r="B18" s="33" t="s">
         <v>396</v>
       </c>
@@ -4722,7 +4973,7 @@
       <c r="N18" s="35"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="64" t="s">
         <v>414</v>
       </c>
       <c r="B20" s="28" t="s">
@@ -4744,7 +4995,7 @@
       <c r="N20" s="29"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" s="62"/>
+      <c r="A21" s="65"/>
       <c r="B21" s="31" t="s">
         <v>402</v>
       </c>
@@ -4784,7 +5035,7 @@
       <c r="N22" s="35"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="63" t="s">
         <v>415</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -4806,7 +5057,7 @@
       <c r="N24" s="29"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" s="60"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="33" t="s">
         <v>420</v>
       </c>
@@ -4826,7 +5077,7 @@
       <c r="N25" s="35"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="63" t="s">
         <v>455</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -4848,7 +5099,7 @@
       <c r="N27" s="29"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" s="60"/>
+      <c r="A28" s="63"/>
       <c r="B28" s="33" t="s">
         <v>458</v>
       </c>
@@ -4998,7 +5249,7 @@
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A27:A28"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -5006,10 +5257,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B100"/>
+  <dimension ref="B2:B109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H106" sqref="H106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -5093,7 +5344,7 @@
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="60" t="s">
         <v>712</v>
       </c>
     </row>
@@ -5118,62 +5369,62 @@
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="60" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="60" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="60" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="60" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="60" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="60" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="60" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B31" s="68" t="s">
+      <c r="B31" s="60" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B32" s="68" t="s">
+      <c r="B32" s="60" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="60" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="68" t="s">
+      <c r="B34" s="60" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="60" t="s">
         <v>701</v>
       </c>
     </row>
@@ -5213,7 +5464,7 @@
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B45" s="68" t="s">
+      <c r="B45" s="60" t="s">
         <v>702</v>
       </c>
     </row>
@@ -5373,7 +5624,7 @@
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B82" s="68" t="s">
+      <c r="B82" s="60" t="s">
         <v>683</v>
       </c>
     </row>
@@ -5393,82 +5644,350 @@
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B87" s="68" t="s">
+      <c r="B87" s="60" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B88" s="68" t="s">
+      <c r="B88" s="60" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B89" s="68" t="s">
+      <c r="B89" s="60" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B90" s="68" t="s">
+      <c r="B90" s="60" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B91" s="68" t="s">
+      <c r="B91" s="60" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B92" s="68" t="s">
+      <c r="B92" s="60" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B93" s="68" t="s">
+      <c r="B93" s="60" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B94" s="70" t="s">
+      <c r="B94" s="62" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B95" s="70" t="s">
+      <c r="B95" s="62" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B96" s="68" t="s">
+      <c r="B96" s="60" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B97" s="70" t="s">
+      <c r="B97" s="62" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B98" s="68" t="s">
+      <c r="B98" s="60" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B99" s="68" t="s">
+      <c r="B99" s="60" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B100" s="68" t="s">
+      <c r="B100" s="60" t="s">
         <v>709</v>
       </c>
     </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B102" s="71" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B103" s="72" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B104" s="72" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B105" s="72" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B106" s="72" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B107" s="72" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B108" s="72" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B109" s="72" t="s">
+        <v>720</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:M24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="9" style="56"/>
+    <col min="4" max="4" width="29.875" style="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="56"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C1" s="73" t="s">
+        <v>722</v>
+      </c>
+      <c r="D1" s="73"/>
+      <c r="H1" s="56" t="s">
+        <v>723</v>
+      </c>
+      <c r="M1" s="56" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C2" s="74" t="s">
+        <v>734</v>
+      </c>
+      <c r="D2" s="74" t="s">
+        <v>735</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>730</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C3" s="74" t="s">
+        <v>739</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>745</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>731</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C4" s="74" t="s">
+        <v>732</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>753</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>760</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C5" s="74" t="s">
+        <v>733</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>754</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C6" s="74" t="s">
+        <v>736</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>740</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C7" s="74" t="s">
+        <v>741</v>
+      </c>
+      <c r="D7" s="74" t="s">
+        <v>744</v>
+      </c>
+      <c r="G7" s="56" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C8" s="74" t="s">
+        <v>737</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C9" s="74" t="s">
+        <v>743</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C10" s="74" t="s">
+        <v>729</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C11" s="74" t="s">
+        <v>749</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C12" s="74" t="s">
+        <v>747</v>
+      </c>
+      <c r="D12" s="74" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C13" s="74" t="s">
+        <v>748</v>
+      </c>
+      <c r="D13" s="74" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D15" s="56" t="s">
+        <v>726</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>728</v>
+      </c>
+      <c r="J15" s="75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C16" s="56" t="s">
+        <v>721</v>
+      </c>
+      <c r="J16" s="75" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D17" s="56" t="s">
+        <v>725</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>727</v>
+      </c>
+      <c r="J17" s="75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="J18" s="75" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D19" s="56" t="s">
+        <v>729</v>
+      </c>
+      <c r="J19" s="75" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="J20" s="75" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="J21" s="75" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="J22" s="75" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="J23" s="75" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="J24" s="75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F8"/>
   <sheetViews>
@@ -5583,17 +6102,17 @@
       <c r="F8" s="58"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E3" sqref="E3:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -5886,17 +6405,17 @@
       <c r="L15" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -5917,15 +6436,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="64"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="16"/>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="64"/>
+      <c r="F2" s="67"/>
       <c r="L2" s="17" t="s">
         <v>261</v>
       </c>
@@ -6654,7 +7173,7 @@
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="61" t="s">
         <v>711</v>
       </c>
       <c r="E29" s="19" t="s">
@@ -6671,10 +7190,10 @@
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="E30" s="69" t="s">
+      <c r="E30" s="61" t="s">
         <v>688</v>
       </c>
-      <c r="F30" s="69" t="s">
+      <c r="F30" s="61" t="s">
         <v>689</v>
       </c>
       <c r="L30" s="17" t="s">
@@ -6685,10 +7204,10 @@
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="E31" s="69" t="s">
+      <c r="E31" s="61" t="s">
         <v>696</v>
       </c>
-      <c r="F31" s="69" t="s">
+      <c r="F31" s="61" t="s">
         <v>699</v>
       </c>
       <c r="L31" s="17" t="s">
@@ -6699,10 +7218,10 @@
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="E32" s="69" t="s">
+      <c r="E32" s="61" t="s">
         <v>697</v>
       </c>
-      <c r="F32" s="69" t="s">
+      <c r="F32" s="61" t="s">
         <v>698</v>
       </c>
       <c r="L32" s="17" t="s">
@@ -6713,7 +7232,7 @@
       </c>
     </row>
     <row r="33" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E33" s="69" t="s">
+      <c r="E33" s="61" t="s">
         <v>710</v>
       </c>
       <c r="L33" s="17" t="s">
@@ -6821,12 +7340,12 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G37"/>
   <sheetViews>
@@ -6963,12 +7482,12 @@
       <c r="B13" s="36" t="s">
         <v>448</v>
       </c>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="68" t="s">
         <v>465</v>
       </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="67"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="70"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="23" t="s">
@@ -7150,18 +7669,18 @@
   <mergeCells count="1">
     <mergeCell ref="D13:G13"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -7962,7 +8481,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>